--- a/dataset/UKRR/v5/UKRR_Dataset_v5_0_0.xlsx
+++ b/dataset/UKRR/v5/UKRR_Dataset_v5_0_0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\UKRDC\resources\dataset\UKRR\v5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\UKRDC\resources\dataset\UKRR\v5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891DC490-BF93-4E71-AA25-45A847777FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DED294-FC71-4A72-BD7E-4D9E0C36FF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'PV data items'!$A$3:$E$80</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">UKRDC7!$A$2:$D$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">UKRDC7!$A$2:$D$86</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="12">'Code Sets'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Demographics!$A$1:$H$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Diagnoses!$A$1:$H$18</definedName>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3391" uniqueCount="1837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3393" uniqueCount="1839">
   <si>
     <t>Demographics</t>
   </si>
@@ -4355,9 +4355,6 @@
   </si>
   <si>
     <t>Depreciated.  'Abroad' will be added as a treatment location to RR1</t>
-  </si>
-  <si>
-    <t>Transplant ; non-heart-beating donor</t>
   </si>
   <si>
     <t>Kidney Transplant ; type unknown</t>
@@ -6029,6 +6026,15 @@
   </si>
   <si>
     <t>UKRDC / RDA Mapping</t>
+  </si>
+  <si>
+    <t>Transplant ; non-heart-beating donor (DCD)</t>
+  </si>
+  <si>
+    <t>Transplant; Donation after Brainstem Death (DBD)</t>
+  </si>
+  <si>
+    <t>Kidney Transplant ; Cadaver donor (Unspecified)</t>
   </si>
 </sst>
 </file>
@@ -6895,7 +6901,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7682,6 +7688,9 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Good" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
@@ -8368,9 +8377,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8408,7 +8417,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -8514,7 +8523,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8656,7 +8665,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8668,14 +8677,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="166" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="23.5">
+    <row r="1" spans="1:1" ht="23.25">
       <c r="A1" s="1" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
   </sheetData>
@@ -8696,26 +8705,26 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="21.08203125" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
     <col min="3" max="3" width="29.5" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
-    <col min="5" max="5" width="25.08203125" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="25.125" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="21.58203125" customWidth="1"/>
+    <col min="7" max="7" width="21.625" customWidth="1"/>
     <col min="9" max="9" width="11" style="40"/>
     <col min="10" max="10" width="30" style="40" customWidth="1"/>
     <col min="11" max="11" width="11" style="40"/>
-    <col min="12" max="12" width="22.33203125" style="40" customWidth="1"/>
+    <col min="12" max="12" width="22.375" style="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.5">
+    <row r="1" spans="1:12" ht="23.25">
       <c r="A1" s="1" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="31">
+    <row r="3" spans="1:12" ht="31.5">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -8735,7 +8744,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
@@ -8753,12 +8762,12 @@
         <v>492</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
       <c r="G4" s="44" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="H4" s="40"/>
     </row>
@@ -8773,12 +8782,12 @@
         <v>494</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
       <c r="G5" s="281" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="H5" s="40"/>
     </row>
@@ -8793,12 +8802,12 @@
         <v>496</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
       <c r="G6" s="44" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="H6" s="40"/>
     </row>
@@ -8806,12 +8815,12 @@
       <c r="B9" s="82"/>
       <c r="C9" s="83"/>
     </row>
-    <row r="10" spans="1:12" ht="31">
+    <row r="10" spans="1:12" ht="31.5">
       <c r="B10" s="3" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>1584</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>1585</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>497</v>
@@ -8939,7 +8948,7 @@
         <v>11</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="15.75" customHeight="1">
@@ -8949,7 +8958,7 @@
         <v>12</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="15.75" customHeight="1">
@@ -9003,28 +9012,28 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="36.83203125" customWidth="1"/>
+    <col min="4" max="4" width="36.875" customWidth="1"/>
     <col min="5" max="5" width="43.75" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.375" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="27.08203125" customWidth="1"/>
+    <col min="9" max="9" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25" customHeight="1">
+    <row r="1" spans="1:10" ht="24.95" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="C2" t="s">
-        <v>1823</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="32.15" customHeight="1">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="32.1" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>519</v>
       </c>
@@ -9050,7 +9059,7 @@
         <v>7</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="J3" s="86"/>
     </row>
@@ -9080,7 +9089,7 @@
         <v>526</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="C5" s="44" t="s">
         <v>16</v>
@@ -9101,16 +9110,16 @@
         <v>528</v>
       </c>
       <c r="B6" s="106" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="C6" s="212" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="106" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E6" s="41" t="s">
         <v>1588</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>1589</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
@@ -9133,7 +9142,7 @@
         <v>532</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
@@ -9153,7 +9162,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
@@ -9197,7 +9206,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="106" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="E10" s="41" t="s">
         <v>541</v>
@@ -9211,7 +9220,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="207" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="B11" s="42" t="s">
         <v>542</v>
@@ -9220,10 +9229,10 @@
         <v>147</v>
       </c>
       <c r="D11" s="134" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="E11" s="133" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="F11" s="209"/>
       <c r="G11" s="210"/>
@@ -9234,7 +9243,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="207" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="B12" s="42" t="s">
         <v>542</v>
@@ -9243,10 +9252,10 @@
         <v>147</v>
       </c>
       <c r="D12" s="134" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="E12" s="133" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="F12" s="209"/>
       <c r="G12" s="210"/>
@@ -9257,7 +9266,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="207" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="B13" s="42" t="s">
         <v>542</v>
@@ -9266,10 +9275,10 @@
         <v>147</v>
       </c>
       <c r="D13" s="134" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="E13" s="133" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="F13" s="209"/>
       <c r="G13" s="210"/>
@@ -9311,17 +9320,17 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="54"/>
+    <col min="1" max="2" width="10.875" style="54"/>
     <col min="3" max="3" width="40" style="40" customWidth="1"/>
-    <col min="4" max="4" width="36.83203125" customWidth="1"/>
-    <col min="7" max="7" width="29.08203125" style="87" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" style="136" customWidth="1"/>
-    <col min="9" max="9" width="17.08203125" customWidth="1"/>
+    <col min="4" max="4" width="36.875" customWidth="1"/>
+    <col min="7" max="7" width="29.125" style="87" customWidth="1"/>
+    <col min="8" max="8" width="13.875" style="136" customWidth="1"/>
+    <col min="9" max="9" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.5">
+    <row r="1" spans="1:12" ht="23.25">
       <c r="A1" s="88" t="s">
         <v>545</v>
       </c>
@@ -9331,7 +9340,7 @@
       <c r="A2" s="29"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:12" ht="46.5">
+    <row r="3" spans="1:12" ht="47.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -9377,7 +9386,7 @@
       <c r="H4" s="213"/>
       <c r="I4" s="50"/>
     </row>
-    <row r="5" spans="1:12" ht="62">
+    <row r="5" spans="1:12" ht="78.75">
       <c r="A5" s="213" t="s">
         <v>549</v>
       </c>
@@ -9388,7 +9397,7 @@
         <v>550</v>
       </c>
       <c r="D5" s="219" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="E5" s="219"/>
       <c r="F5" s="217"/>
@@ -9449,7 +9458,7 @@
       <c r="H8" s="220"/>
       <c r="I8" s="90"/>
     </row>
-    <row r="9" spans="1:12" ht="31">
+    <row r="9" spans="1:12" ht="31.5">
       <c r="A9" s="213" t="s">
         <v>559</v>
       </c>
@@ -9470,7 +9479,7 @@
       <c r="H9" s="220"/>
       <c r="I9" s="90"/>
     </row>
-    <row r="10" spans="1:12" ht="31">
+    <row r="10" spans="1:12" ht="31.5">
       <c r="A10" s="213" t="s">
         <v>561</v>
       </c>
@@ -9510,7 +9519,7 @@
       <c r="H11" s="222"/>
       <c r="I11" s="50"/>
     </row>
-    <row r="12" spans="1:12" ht="31">
+    <row r="12" spans="1:12" ht="31.5">
       <c r="A12" s="213" t="s">
         <v>567</v>
       </c>
@@ -9542,7 +9551,7 @@
         <v>572</v>
       </c>
       <c r="D13" s="221" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="E13" s="224"/>
       <c r="F13" s="225"/>
@@ -9590,7 +9599,7 @@
       <c r="H15" s="221"/>
       <c r="I15" s="50"/>
     </row>
-    <row r="16" spans="1:12" ht="31">
+    <row r="16" spans="1:12" ht="31.5">
       <c r="A16" s="223" t="s">
         <v>579</v>
       </c>
@@ -9662,7 +9671,7 @@
         <v>150</v>
       </c>
       <c r="C19" s="234" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="D19" s="235"/>
       <c r="E19" s="236" t="s">
@@ -9685,7 +9694,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="234" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="D20" s="235"/>
       <c r="E20" s="236"/>
@@ -10336,7 +10345,7 @@
       <c r="E51" s="221"/>
       <c r="F51" s="221"/>
       <c r="G51" s="240" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="H51" s="221"/>
     </row>
@@ -10354,11 +10363,11 @@
       <c r="E52" s="221"/>
       <c r="F52" s="221"/>
       <c r="G52" s="240" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="H52" s="221"/>
     </row>
-    <row r="53" spans="1:12" ht="46.5">
+    <row r="53" spans="1:12" ht="47.25">
       <c r="A53" s="238" t="s">
         <v>666</v>
       </c>
@@ -10378,7 +10387,7 @@
       </c>
       <c r="H53" s="221"/>
     </row>
-    <row r="54" spans="1:12" ht="31">
+    <row r="54" spans="1:12" ht="31.5">
       <c r="A54" s="238" t="s">
         <v>670</v>
       </c>
@@ -10394,7 +10403,7 @@
       <c r="G54" s="240"/>
       <c r="H54" s="221"/>
     </row>
-    <row r="55" spans="1:12" ht="31">
+    <row r="55" spans="1:12" ht="31.5">
       <c r="A55" s="238" t="s">
         <v>672</v>
       </c>
@@ -10544,7 +10553,7 @@
       <c r="E63" s="221"/>
       <c r="F63" s="221"/>
       <c r="G63" s="245" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="H63" s="221"/>
     </row>
@@ -10564,7 +10573,7 @@
       <c r="E64" s="221"/>
       <c r="F64" s="221"/>
       <c r="G64" s="245" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="H64" s="221"/>
     </row>
@@ -10582,11 +10591,11 @@
       <c r="E65" s="221"/>
       <c r="F65" s="221"/>
       <c r="G65" s="245" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="H65" s="221"/>
     </row>
-    <row r="66" spans="1:8" ht="31">
+    <row r="66" spans="1:8" ht="31.5">
       <c r="A66" s="238" t="s">
         <v>693</v>
       </c>
@@ -10674,7 +10683,7 @@
       <c r="G70" s="240"/>
       <c r="H70" s="221"/>
     </row>
-    <row r="71" spans="1:8" ht="31">
+    <row r="71" spans="1:8" ht="31.5">
       <c r="A71" s="238" t="s">
         <v>706</v>
       </c>
@@ -10780,7 +10789,7 @@
       <c r="G76" s="240"/>
       <c r="H76" s="221"/>
     </row>
-    <row r="77" spans="1:8" ht="31">
+    <row r="77" spans="1:8" ht="31.5">
       <c r="A77" s="238" t="s">
         <v>719</v>
       </c>
@@ -10870,7 +10879,7 @@
       </c>
       <c r="H81" s="221"/>
     </row>
-    <row r="82" spans="1:8" ht="31">
+    <row r="82" spans="1:8" ht="31.5">
       <c r="A82" s="238" t="s">
         <v>730</v>
       </c>
@@ -10888,7 +10897,7 @@
       <c r="G82" s="240"/>
       <c r="H82" s="221"/>
     </row>
-    <row r="83" spans="1:8" ht="31">
+    <row r="83" spans="1:8" ht="31.5">
       <c r="A83" s="238" t="s">
         <v>732</v>
       </c>
@@ -10958,7 +10967,7 @@
       <c r="E86" s="221"/>
       <c r="F86" s="221"/>
       <c r="G86" s="240" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="H86" s="221"/>
     </row>
@@ -11650,7 +11659,7 @@
       </c>
       <c r="H124" s="221"/>
     </row>
-    <row r="125" spans="1:8" ht="31">
+    <row r="125" spans="1:8" ht="31.5">
       <c r="A125" s="238" t="s">
         <v>828</v>
       </c>
@@ -11664,11 +11673,11 @@
       <c r="E125" s="221"/>
       <c r="F125" s="221"/>
       <c r="G125" s="240" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="H125" s="221"/>
     </row>
-    <row r="126" spans="1:8" ht="31">
+    <row r="126" spans="1:8" ht="31.5">
       <c r="A126" s="238" t="s">
         <v>830</v>
       </c>
@@ -11682,7 +11691,7 @@
       <c r="E126" s="221"/>
       <c r="F126" s="221"/>
       <c r="G126" s="240" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="H126" s="221"/>
     </row>
@@ -11700,11 +11709,11 @@
       <c r="E127" s="221"/>
       <c r="F127" s="221"/>
       <c r="G127" s="240" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="H127" s="221"/>
     </row>
-    <row r="128" spans="1:8" ht="31">
+    <row r="128" spans="1:8" ht="31.5">
       <c r="A128" s="238" t="s">
         <v>834</v>
       </c>
@@ -11866,7 +11875,7 @@
       <c r="G136" s="240"/>
       <c r="H136" s="221"/>
     </row>
-    <row r="137" spans="1:8" ht="31">
+    <row r="137" spans="1:8" ht="31.5">
       <c r="A137" s="238" t="s">
         <v>860</v>
       </c>
@@ -12282,7 +12291,7 @@
       </c>
       <c r="H159" s="221"/>
     </row>
-    <row r="160" spans="1:8" ht="31">
+    <row r="160" spans="1:8" ht="31.5">
       <c r="A160" s="238" t="s">
         <v>920</v>
       </c>
@@ -12322,7 +12331,7 @@
       </c>
       <c r="H161" s="221"/>
     </row>
-    <row r="162" spans="1:8" ht="31">
+    <row r="162" spans="1:8" ht="31.5">
       <c r="A162" s="238" t="s">
         <v>925</v>
       </c>
@@ -12360,7 +12369,7 @@
       <c r="E163" s="238"/>
       <c r="F163" s="238"/>
       <c r="G163" s="246" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="H163" s="238"/>
     </row>
@@ -12384,7 +12393,7 @@
       </c>
       <c r="H164" s="221"/>
     </row>
-    <row r="165" spans="1:8" ht="31">
+    <row r="165" spans="1:8" ht="31.5">
       <c r="A165" s="238" t="s">
         <v>934</v>
       </c>
@@ -12418,11 +12427,11 @@
       <c r="E166" s="221"/>
       <c r="F166" s="221"/>
       <c r="G166" s="240" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="H166" s="221"/>
     </row>
-    <row r="167" spans="1:8" ht="31">
+    <row r="167" spans="1:8" ht="31.5">
       <c r="A167" s="238" t="s">
         <v>939</v>
       </c>
@@ -12442,7 +12451,7 @@
       </c>
       <c r="H167" s="221"/>
     </row>
-    <row r="168" spans="1:8" ht="31">
+    <row r="168" spans="1:8" ht="31.5">
       <c r="A168" s="238" t="s">
         <v>941</v>
       </c>
@@ -12460,7 +12469,7 @@
       </c>
       <c r="H168" s="221"/>
     </row>
-    <row r="169" spans="1:8" ht="31">
+    <row r="169" spans="1:8" ht="31.5">
       <c r="A169" s="238" t="s">
         <v>943</v>
       </c>
@@ -12478,7 +12487,7 @@
       </c>
       <c r="H169" s="221"/>
     </row>
-    <row r="170" spans="1:8" ht="31">
+    <row r="170" spans="1:8" ht="31.5">
       <c r="A170" s="238" t="s">
         <v>945</v>
       </c>
@@ -12498,7 +12507,7 @@
       </c>
       <c r="H170" s="221"/>
     </row>
-    <row r="171" spans="1:8" ht="31">
+    <row r="171" spans="1:8" ht="31.5">
       <c r="A171" s="238" t="s">
         <v>947</v>
       </c>
@@ -12518,7 +12527,7 @@
       </c>
       <c r="H171" s="221"/>
     </row>
-    <row r="172" spans="1:8" ht="31">
+    <row r="172" spans="1:8" ht="31.5">
       <c r="A172" s="238" t="s">
         <v>949</v>
       </c>
@@ -12810,7 +12819,7 @@
       <c r="E187" s="221"/>
       <c r="F187" s="221"/>
       <c r="G187" s="245" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="H187" s="221"/>
     </row>
@@ -12890,37 +12899,37 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="14.58203125" customWidth="1"/>
-    <col min="2" max="2" width="48.08203125" customWidth="1"/>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="48.125" customWidth="1"/>
     <col min="3" max="3" width="24.75" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="27.5" customWidth="1"/>
-    <col min="8" max="8" width="24.83203125" customWidth="1"/>
-    <col min="9" max="9" width="67.08203125" customWidth="1"/>
-    <col min="11" max="11" width="15.83203125" customWidth="1"/>
-    <col min="12" max="12" width="45.83203125" customWidth="1"/>
-    <col min="13" max="13" width="90.08203125" customWidth="1"/>
-    <col min="14" max="14" width="17.08203125" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" customWidth="1"/>
-    <col min="16" max="16" width="19.58203125" customWidth="1"/>
-    <col min="17" max="17" width="35.33203125" customWidth="1"/>
-    <col min="18" max="18" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="24.875" customWidth="1"/>
+    <col min="9" max="9" width="67.125" customWidth="1"/>
+    <col min="11" max="11" width="15.875" customWidth="1"/>
+    <col min="12" max="12" width="45.875" customWidth="1"/>
+    <col min="13" max="13" width="90.125" customWidth="1"/>
+    <col min="14" max="14" width="17.125" customWidth="1"/>
+    <col min="15" max="15" width="10.875" customWidth="1"/>
+    <col min="16" max="16" width="19.625" customWidth="1"/>
+    <col min="17" max="17" width="35.375" customWidth="1"/>
+    <col min="18" max="18" width="10.875" customWidth="1"/>
     <col min="19" max="19" width="30.5" customWidth="1"/>
-    <col min="20" max="20" width="33.83203125" customWidth="1"/>
-    <col min="21" max="21" width="10.83203125" customWidth="1"/>
-    <col min="22" max="22" width="32.83203125" customWidth="1"/>
-    <col min="23" max="23" width="30.08203125" customWidth="1"/>
+    <col min="20" max="20" width="33.875" customWidth="1"/>
+    <col min="21" max="21" width="10.875" customWidth="1"/>
+    <col min="22" max="22" width="32.875" customWidth="1"/>
+    <col min="23" max="23" width="30.125" customWidth="1"/>
     <col min="26" max="26" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="32.25" customHeight="1">
       <c r="B1" s="248" t="s">
-        <v>1810</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" s="151" customFormat="1" ht="23.5">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" s="151" customFormat="1" ht="23.25">
       <c r="A2" s="284" t="s">
         <v>993</v>
       </c>
@@ -12936,13 +12945,13 @@
       </c>
       <c r="I2" s="282"/>
       <c r="K2" s="148" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="L2" s="201"/>
       <c r="M2" s="201"/>
       <c r="N2" s="201"/>
       <c r="P2" s="148" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="Q2" s="148"/>
       <c r="R2" s="152"/>
@@ -12975,7 +12984,7 @@
         <v>1357</v>
       </c>
       <c r="L3" s="104" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="M3" s="22"/>
       <c r="N3" s="22"/>
@@ -12991,15 +13000,15 @@
       <c r="Y3" s="16"/>
       <c r="Z3" s="16"/>
     </row>
-    <row r="4" spans="1:26" ht="31">
+    <row r="4" spans="1:26" ht="31.5">
       <c r="A4" s="92" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B4" s="92"/>
       <c r="C4" s="95"/>
       <c r="D4" s="96"/>
       <c r="E4" s="283" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="F4" s="283"/>
       <c r="H4" s="92" t="s">
@@ -13020,7 +13029,7 @@
       </c>
       <c r="O4" s="206"/>
       <c r="P4" s="92" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="Q4" s="91"/>
       <c r="S4" s="92" t="s">
@@ -13555,7 +13564,7 @@
         <v>29</v>
       </c>
       <c r="L14" s="270" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="M14" s="268"/>
       <c r="N14" s="106"/>
@@ -13598,7 +13607,7 @@
         <v>30</v>
       </c>
       <c r="L15" s="275" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M15" s="94"/>
       <c r="N15" s="94"/>
@@ -13641,7 +13650,7 @@
         <v>38</v>
       </c>
       <c r="L16" s="275" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="M16" s="94"/>
       <c r="N16" s="94"/>
@@ -13684,10 +13693,10 @@
         <v>72</v>
       </c>
       <c r="L17" s="107" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="M17" s="106" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="N17" s="106"/>
       <c r="P17" s="105"/>
@@ -13720,10 +13729,10 @@
         <v>120</v>
       </c>
       <c r="L18" s="203" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="M18" s="204" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="N18" s="199"/>
       <c r="P18" s="105"/>
@@ -13756,10 +13765,10 @@
         <v>81</v>
       </c>
       <c r="L19" s="107" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="M19" s="106" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="N19" s="106"/>
       <c r="P19" s="105"/>
@@ -13792,10 +13801,10 @@
         <v>82</v>
       </c>
       <c r="L20" s="107" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="M20" s="106" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="N20" s="106"/>
       <c r="P20" s="105"/>
@@ -13828,10 +13837,10 @@
         <v>83</v>
       </c>
       <c r="L21" s="107" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="M21" s="106" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="N21" s="106"/>
       <c r="P21" s="105"/>
@@ -13858,10 +13867,10 @@
         <v>88</v>
       </c>
       <c r="L22" s="198" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="M22" s="200" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="N22" s="200"/>
       <c r="P22" s="105"/>
@@ -13888,10 +13897,10 @@
         <v>101</v>
       </c>
       <c r="L23" s="198" t="s">
+        <v>1466</v>
+      </c>
+      <c r="M23" s="200" t="s">
         <v>1467</v>
-      </c>
-      <c r="M23" s="200" t="s">
-        <v>1468</v>
       </c>
       <c r="N23" s="200"/>
       <c r="P23" s="105"/>
@@ -13918,10 +13927,10 @@
         <v>904</v>
       </c>
       <c r="L24" s="198" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="M24" s="200" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="N24" s="200"/>
       <c r="P24" s="105"/>
@@ -13948,10 +13957,10 @@
         <v>903</v>
       </c>
       <c r="L25" s="198" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="M25" s="200" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="N25" s="200"/>
       <c r="P25" s="105"/>
@@ -13978,10 +13987,10 @@
         <v>902</v>
       </c>
       <c r="L26" s="198" t="s">
+        <v>1472</v>
+      </c>
+      <c r="M26" s="200" t="s">
         <v>1473</v>
-      </c>
-      <c r="M26" s="200" t="s">
-        <v>1474</v>
       </c>
       <c r="N26" s="200"/>
       <c r="P26" s="105"/>
@@ -14008,10 +14017,10 @@
         <v>900</v>
       </c>
       <c r="L27" s="270" t="s">
+        <v>1474</v>
+      </c>
+      <c r="M27" s="106" t="s">
         <v>1475</v>
-      </c>
-      <c r="M27" s="106" t="s">
-        <v>1476</v>
       </c>
       <c r="N27" s="106"/>
       <c r="P27" s="105"/>
@@ -14038,10 +14047,10 @@
         <v>901</v>
       </c>
       <c r="L28" s="198" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="M28" s="200" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="N28" s="200"/>
       <c r="P28" s="105"/>
@@ -14068,7 +14077,7 @@
         <v>90</v>
       </c>
       <c r="L29" s="270" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="M29" s="271"/>
       <c r="N29" s="271"/>
@@ -14096,7 +14105,7 @@
         <v>91</v>
       </c>
       <c r="L30" s="270" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="M30" s="271"/>
       <c r="N30" s="271"/>
@@ -14122,7 +14131,7 @@
         <v>95</v>
       </c>
       <c r="L31" s="107" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="M31" s="271"/>
       <c r="N31" s="271"/>
@@ -14482,7 +14491,7 @@
         <v>67</v>
       </c>
       <c r="I49" s="104" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="M49" s="105"/>
       <c r="N49" s="105"/>
@@ -14502,7 +14511,7 @@
         <v>68</v>
       </c>
       <c r="I50" s="104" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="M50" s="105"/>
       <c r="N50" s="105"/>
@@ -14922,7 +14931,7 @@
         <v>111</v>
       </c>
       <c r="I71" s="250" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="M71" s="105"/>
       <c r="N71" s="105"/>
@@ -15167,13 +15176,13 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="185" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B89" s="186" t="s">
         <v>1483</v>
       </c>
-      <c r="B89" s="186" t="s">
+      <c r="C89" s="187" t="s">
         <v>1484</v>
-      </c>
-      <c r="C89" s="187" t="s">
-        <v>1485</v>
       </c>
       <c r="M89" s="105"/>
       <c r="N89" s="105"/>
@@ -15218,27 +15227,27 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:L89"/>
+  <dimension ref="A1:L90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" style="54" customWidth="1"/>
+    <col min="1" max="1" width="16.875" style="54" customWidth="1"/>
     <col min="2" max="2" width="22.75" customWidth="1"/>
     <col min="3" max="3" width="46.75" customWidth="1"/>
-    <col min="4" max="4" width="20.08203125" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
     <col min="5" max="5" width="26.5" customWidth="1"/>
-    <col min="7" max="7" width="12.08203125" customWidth="1"/>
-    <col min="8" max="8" width="40.33203125" customWidth="1"/>
-    <col min="10" max="10" width="11.58203125" customWidth="1"/>
-    <col min="11" max="11" width="56.08203125" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="8" max="8" width="40.375" customWidth="1"/>
+    <col min="10" max="10" width="11.625" customWidth="1"/>
+    <col min="11" max="11" width="56.125" customWidth="1"/>
     <col min="12" max="12" width="32.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.5">
+    <row r="1" spans="1:12" ht="23.25">
       <c r="A1" s="148" t="s">
         <v>1357</v>
       </c>
@@ -15256,7 +15265,7 @@
       <c r="K1" s="285"/>
       <c r="L1" s="285"/>
     </row>
-    <row r="2" spans="1:12" ht="16" thickBot="1">
+    <row r="2" spans="1:12" ht="16.5" thickBot="1">
       <c r="A2" s="111" t="s">
         <v>1359</v>
       </c>
@@ -15281,7 +15290,7 @@
       <c r="K2" s="169"/>
       <c r="L2" s="168"/>
     </row>
-    <row r="3" spans="1:12" ht="16" thickBot="1">
+    <row r="3" spans="1:12" ht="16.5" thickBot="1">
       <c r="A3" s="116">
         <v>1</v>
       </c>
@@ -15293,7 +15302,7 @@
         <v>1363</v>
       </c>
       <c r="E3" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="G3" s="167" t="s">
         <v>1364</v>
@@ -15306,7 +15315,7 @@
       <c r="K3" s="169"/>
       <c r="L3" s="168"/>
     </row>
-    <row r="4" spans="1:12" ht="31.5" thickBot="1">
+    <row r="4" spans="1:12" ht="32.25" thickBot="1">
       <c r="A4" s="116">
         <v>2</v>
       </c>
@@ -15318,7 +15327,7 @@
         <v>1363</v>
       </c>
       <c r="E4" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="G4" s="170" t="s">
         <v>1002</v>
@@ -15349,7 +15358,7 @@
         <v>1363</v>
       </c>
       <c r="E5" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="G5" s="175" t="s">
         <v>1011</v>
@@ -15368,7 +15377,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="26">
+    <row r="6" spans="1:12" ht="25.5">
       <c r="A6" s="253">
         <v>4</v>
       </c>
@@ -15408,7 +15417,7 @@
         <v>1363</v>
       </c>
       <c r="E7" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="G7" s="180" t="s">
         <v>1040</v>
@@ -15467,7 +15476,7 @@
       </c>
       <c r="D9" s="115"/>
       <c r="E9" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="G9" s="190" t="s">
         <v>1030</v>
@@ -15498,7 +15507,7 @@
         <v>1383</v>
       </c>
       <c r="E10" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="G10" s="136"/>
       <c r="H10" s="136"/>
@@ -15549,7 +15558,7 @@
         <v>1383</v>
       </c>
       <c r="E12" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="G12" s="136"/>
       <c r="H12" s="136"/>
@@ -15588,7 +15597,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="26">
+    <row r="14" spans="1:12" ht="25.5">
       <c r="A14" s="253">
         <v>19</v>
       </c>
@@ -15684,17 +15693,17 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="26">
+    <row r="18" spans="1:12" ht="25.5">
       <c r="A18" s="116">
         <v>20</v>
       </c>
       <c r="B18" s="114" t="s">
-        <v>1394</v>
+        <v>1838</v>
       </c>
       <c r="C18" s="258"/>
       <c r="D18" s="115"/>
       <c r="E18" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="G18" s="136"/>
       <c r="H18" s="136"/>
@@ -15709,7 +15718,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="26">
+    <row r="19" spans="1:12" ht="25.5">
       <c r="A19" s="253">
         <v>21</v>
       </c>
@@ -15733,7 +15742,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="26">
+    <row r="20" spans="1:12" ht="25.5">
       <c r="A20" s="253">
         <v>74</v>
       </c>
@@ -15757,7 +15766,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="26">
+    <row r="21" spans="1:12" ht="25.5">
       <c r="A21" s="253">
         <v>75</v>
       </c>
@@ -15805,7 +15814,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="26">
+    <row r="23" spans="1:12">
       <c r="A23" s="253">
         <v>23</v>
       </c>
@@ -15829,7 +15838,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="26">
+    <row r="24" spans="1:12" ht="25.5">
       <c r="A24" s="253">
         <v>24</v>
       </c>
@@ -15857,13 +15866,13 @@
       <c r="A25" s="116">
         <v>78</v>
       </c>
-      <c r="B25" s="116" t="s">
+      <c r="B25" s="286" t="s">
         <v>1402</v>
       </c>
       <c r="C25" s="116"/>
       <c r="D25" s="116"/>
       <c r="E25" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="G25" s="136"/>
       <c r="H25" s="136"/>
@@ -15878,7 +15887,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="26">
+    <row r="26" spans="1:12" ht="25.5">
       <c r="A26" s="253">
         <v>25</v>
       </c>
@@ -15902,7 +15911,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="26">
+    <row r="27" spans="1:12" ht="25.5">
       <c r="A27" s="253">
         <v>26</v>
       </c>
@@ -15926,7 +15935,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="26">
+    <row r="28" spans="1:12" ht="25.5">
       <c r="A28" s="253">
         <v>27</v>
       </c>
@@ -15950,12 +15959,12 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="26">
+    <row r="29" spans="1:12" ht="25.5">
       <c r="A29" s="253">
         <v>28</v>
       </c>
       <c r="B29" s="117" t="s">
-        <v>1407</v>
+        <v>1836</v>
       </c>
       <c r="C29" s="254" t="s">
         <v>1396</v>
@@ -15974,134 +15983,128 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="26">
-      <c r="A30" s="116">
-        <v>29</v>
-      </c>
-      <c r="B30" s="114" t="s">
-        <v>1408</v>
-      </c>
-      <c r="C30" s="259"/>
-      <c r="D30" s="115"/>
-      <c r="E30" t="s">
-        <v>1780</v>
-      </c>
+    <row r="30" spans="1:12" ht="25.5">
+      <c r="A30" s="253">
+        <v>300</v>
+      </c>
+      <c r="B30" s="117" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C30" s="254" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D30" s="117"/>
       <c r="G30" s="136"/>
       <c r="H30" s="136"/>
       <c r="I30" s="136"/>
-      <c r="J30" s="185" t="s">
-        <v>1157</v>
-      </c>
-      <c r="K30" s="186" t="s">
-        <v>1158</v>
-      </c>
-      <c r="L30" s="187" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="260">
-        <v>30</v>
-      </c>
-      <c r="B31" s="120" t="s">
-        <v>1409</v>
-      </c>
-      <c r="C31" s="261"/>
-      <c r="D31" s="261"/>
+      <c r="J30" s="185"/>
+      <c r="K30" s="186"/>
+      <c r="L30" s="187"/>
+    </row>
+    <row r="31" spans="1:12" ht="25.5">
+      <c r="A31" s="116">
+        <v>29</v>
+      </c>
+      <c r="B31" s="114" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C31" s="259"/>
+      <c r="D31" s="115"/>
       <c r="E31" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="G31" s="136"/>
       <c r="H31" s="136"/>
       <c r="I31" s="136"/>
       <c r="J31" s="185" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="K31" s="186" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="L31" s="187" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="26">
-      <c r="A32" s="253">
-        <v>31</v>
-      </c>
-      <c r="B32" s="117" t="s">
-        <v>1410</v>
-      </c>
-      <c r="C32" s="117" t="s">
-        <v>1411</v>
-      </c>
-      <c r="D32" s="117"/>
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="260">
+        <v>30</v>
+      </c>
+      <c r="B32" s="120" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C32" s="261"/>
+      <c r="D32" s="261"/>
+      <c r="E32" t="s">
+        <v>1780</v>
+      </c>
       <c r="G32" s="136"/>
       <c r="H32" s="136"/>
       <c r="I32" s="136"/>
       <c r="J32" s="185" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="K32" s="186" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="L32" s="187" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="26">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="25.5">
       <c r="A33" s="253">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="117" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="C33" s="117" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D33" s="117"/>
       <c r="G33" s="136"/>
       <c r="H33" s="136"/>
       <c r="I33" s="136"/>
       <c r="J33" s="185" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="K33" s="186" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="L33" s="187" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="26">
-      <c r="A34" s="262">
-        <v>35</v>
-      </c>
-      <c r="B34" s="121" t="s">
-        <v>1413</v>
-      </c>
-      <c r="C34" s="254" t="s">
-        <v>1019</v>
-      </c>
-      <c r="D34" s="122"/>
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="25.5">
+      <c r="A34" s="253">
+        <v>32</v>
+      </c>
+      <c r="B34" s="117" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C34" s="117" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D34" s="117"/>
       <c r="G34" s="136"/>
       <c r="H34" s="136"/>
       <c r="I34" s="136"/>
       <c r="J34" s="185" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="K34" s="186" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="L34" s="187" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="26">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="25.5">
       <c r="A35" s="262">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="121" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="C35" s="254" t="s">
         <v>1019</v>
@@ -16111,92 +16114,92 @@
       <c r="H35" s="136"/>
       <c r="I35" s="136"/>
       <c r="J35" s="185" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="K35" s="186" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="L35" s="187" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="253">
-        <v>37</v>
-      </c>
-      <c r="B36" s="117" t="s">
-        <v>1415</v>
-      </c>
-      <c r="C36" s="117"/>
-      <c r="D36" s="117"/>
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="25.5">
+      <c r="A36" s="262">
+        <v>36</v>
+      </c>
+      <c r="B36" s="121" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C36" s="254" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D36" s="122"/>
       <c r="G36" s="136"/>
       <c r="H36" s="136"/>
       <c r="I36" s="136"/>
       <c r="J36" s="185" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="K36" s="186" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="L36" s="187" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="26">
-      <c r="A37" s="260">
-        <v>38</v>
-      </c>
-      <c r="B37" s="123" t="s">
-        <v>1416</v>
-      </c>
-      <c r="C37" s="263"/>
-      <c r="D37" s="261"/>
-      <c r="E37" t="s">
-        <v>1781</v>
-      </c>
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="253">
+        <v>37</v>
+      </c>
+      <c r="B37" s="117" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C37" s="117"/>
+      <c r="D37" s="117"/>
       <c r="G37" s="136"/>
       <c r="H37" s="136"/>
       <c r="I37" s="136"/>
       <c r="J37" s="185" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="K37" s="186" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="L37" s="187" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="26">
-      <c r="A38" s="262">
-        <v>39</v>
-      </c>
-      <c r="B38" s="121" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C38" s="254" t="s">
-        <v>1019</v>
-      </c>
-      <c r="D38" s="122"/>
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="25.5">
+      <c r="A38" s="260">
+        <v>38</v>
+      </c>
+      <c r="B38" s="123" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C38" s="263"/>
+      <c r="D38" s="261"/>
+      <c r="E38" t="s">
+        <v>1780</v>
+      </c>
       <c r="G38" s="136"/>
       <c r="H38" s="136"/>
       <c r="I38" s="136"/>
       <c r="J38" s="185" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="K38" s="186" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="L38" s="187" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="25.5">
       <c r="A39" s="262">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B39" s="121" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="C39" s="254" t="s">
         <v>1019</v>
@@ -16206,21 +16209,21 @@
       <c r="H39" s="136"/>
       <c r="I39" s="136"/>
       <c r="J39" s="185" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="K39" s="186" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="L39" s="187" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="26">
+    <row r="40" spans="1:12">
       <c r="A40" s="262">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" s="121" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="C40" s="254" t="s">
         <v>1019</v>
@@ -16230,21 +16233,21 @@
       <c r="H40" s="136"/>
       <c r="I40" s="136"/>
       <c r="J40" s="185" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="K40" s="186" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="L40" s="187" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="26">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="25.5">
       <c r="A41" s="262">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" s="121" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="C41" s="254" t="s">
         <v>1019</v>
@@ -16254,117 +16257,117 @@
       <c r="H41" s="136"/>
       <c r="I41" s="136"/>
       <c r="J41" s="185" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="K41" s="186" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="L41" s="187" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="26">
-      <c r="A42" s="253">
-        <v>44</v>
-      </c>
-      <c r="B42" s="117" t="s">
-        <v>1421</v>
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="25.5">
+      <c r="A42" s="262">
+        <v>43</v>
+      </c>
+      <c r="B42" s="121" t="s">
+        <v>1419</v>
       </c>
       <c r="C42" s="254" t="s">
         <v>1019</v>
       </c>
-      <c r="D42" s="117"/>
+      <c r="D42" s="122"/>
       <c r="G42" s="136"/>
       <c r="H42" s="136"/>
       <c r="I42" s="136"/>
       <c r="J42" s="185" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="K42" s="186" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="L42" s="187" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="262">
-        <v>45</v>
-      </c>
-      <c r="B43" s="121" t="s">
-        <v>1422</v>
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="25.5">
+      <c r="A43" s="253">
+        <v>44</v>
+      </c>
+      <c r="B43" s="117" t="s">
+        <v>1420</v>
       </c>
       <c r="C43" s="254" t="s">
         <v>1019</v>
       </c>
-      <c r="D43" s="122"/>
+      <c r="D43" s="117"/>
       <c r="G43" s="136"/>
       <c r="H43" s="136"/>
       <c r="I43" s="136"/>
       <c r="J43" s="185" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="K43" s="186" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="L43" s="187" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="26">
-      <c r="A44" s="253">
-        <v>49</v>
-      </c>
-      <c r="B44" s="117" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C44" s="117" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="262">
+        <v>45</v>
+      </c>
+      <c r="B44" s="121" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C44" s="254" t="s">
         <v>1019</v>
       </c>
-      <c r="D44" s="117"/>
+      <c r="D44" s="122"/>
       <c r="G44" s="136"/>
       <c r="H44" s="136"/>
       <c r="I44" s="136"/>
       <c r="J44" s="185" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="K44" s="186" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="L44" s="187" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="26">
-      <c r="A45" s="262">
-        <v>150</v>
-      </c>
-      <c r="B45" s="121" t="s">
-        <v>1424</v>
-      </c>
-      <c r="C45" s="254" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="25.5">
+      <c r="A45" s="253">
+        <v>49</v>
+      </c>
+      <c r="B45" s="117" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C45" s="117" t="s">
         <v>1019</v>
       </c>
-      <c r="D45" s="122"/>
+      <c r="D45" s="117"/>
       <c r="G45" s="136"/>
       <c r="H45" s="136"/>
       <c r="I45" s="136"/>
       <c r="J45" s="185" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="K45" s="186" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="L45" s="187" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="21" customHeight="1">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="38.25">
       <c r="A46" s="262">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="B46" s="121" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="C46" s="254" t="s">
         <v>1019</v>
@@ -16374,21 +16377,21 @@
       <c r="H46" s="136"/>
       <c r="I46" s="136"/>
       <c r="J46" s="185" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="K46" s="186" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="L46" s="187" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="24" customHeight="1">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="21" customHeight="1">
       <c r="A47" s="262">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47" s="121" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="C47" s="254" t="s">
         <v>1019</v>
@@ -16398,45 +16401,45 @@
       <c r="H47" s="136"/>
       <c r="I47" s="136"/>
       <c r="J47" s="185" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="K47" s="186" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="L47" s="187" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A48" s="253">
-        <v>162</v>
-      </c>
-      <c r="B48" s="117" t="s">
-        <v>1427</v>
-      </c>
-      <c r="C48" s="117" t="s">
+    <row r="48" spans="1:12" ht="24" customHeight="1">
+      <c r="A48" s="262">
+        <v>52</v>
+      </c>
+      <c r="B48" s="121" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C48" s="254" t="s">
         <v>1019</v>
       </c>
-      <c r="D48" s="117"/>
+      <c r="D48" s="122"/>
       <c r="G48" s="136"/>
       <c r="H48" s="136"/>
       <c r="I48" s="136"/>
       <c r="J48" s="185" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="K48" s="186" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="L48" s="187" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="26">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="23.25" customHeight="1">
       <c r="A49" s="253">
-        <v>241</v>
+        <v>162</v>
       </c>
       <c r="B49" s="117" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="C49" s="117" t="s">
         <v>1019</v>
@@ -16446,21 +16449,21 @@
       <c r="H49" s="136"/>
       <c r="I49" s="136"/>
       <c r="J49" s="185" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="K49" s="186" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="L49" s="187" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="26">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="25.5">
       <c r="A50" s="253">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B50" s="117" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="C50" s="117" t="s">
         <v>1019</v>
@@ -16470,21 +16473,21 @@
       <c r="H50" s="136"/>
       <c r="I50" s="136"/>
       <c r="J50" s="185" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="K50" s="186" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="L50" s="187" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="26">
+    <row r="51" spans="1:12" ht="25.5">
       <c r="A51" s="253">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B51" s="117" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="C51" s="117" t="s">
         <v>1019</v>
@@ -16494,21 +16497,21 @@
       <c r="H51" s="136"/>
       <c r="I51" s="136"/>
       <c r="J51" s="185" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="K51" s="186" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="L51" s="187" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="26">
+    <row r="52" spans="1:12" ht="25.5">
       <c r="A52" s="253">
-        <v>59</v>
+        <v>243</v>
       </c>
       <c r="B52" s="117" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="C52" s="117" t="s">
         <v>1019</v>
@@ -16518,69 +16521,69 @@
       <c r="H52" s="136"/>
       <c r="I52" s="136"/>
       <c r="J52" s="185" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="K52" s="186" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="L52" s="187" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="26">
-      <c r="A53" s="262">
-        <v>60</v>
-      </c>
-      <c r="B53" s="121" t="s">
-        <v>1432</v>
-      </c>
-      <c r="C53" s="254" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="25.5">
+      <c r="A53" s="253">
+        <v>59</v>
+      </c>
+      <c r="B53" s="117" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C53" s="117" t="s">
         <v>1019</v>
       </c>
-      <c r="D53" s="122"/>
+      <c r="D53" s="117"/>
       <c r="G53" s="136"/>
       <c r="H53" s="136"/>
       <c r="I53" s="136"/>
       <c r="J53" s="185" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="K53" s="186" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="L53" s="187" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="26">
-      <c r="A54" s="124">
-        <v>61</v>
-      </c>
-      <c r="B54" s="117" t="s">
-        <v>1433</v>
-      </c>
-      <c r="C54" s="117" t="s">
+    <row r="54" spans="1:12" ht="25.5">
+      <c r="A54" s="262">
+        <v>60</v>
+      </c>
+      <c r="B54" s="121" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C54" s="254" t="s">
         <v>1019</v>
       </c>
-      <c r="D54" s="117"/>
+      <c r="D54" s="122"/>
       <c r="G54" s="136"/>
       <c r="H54" s="136"/>
       <c r="I54" s="136"/>
       <c r="J54" s="185" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="K54" s="186" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="L54" s="187" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="26">
+    <row r="55" spans="1:12" ht="25.5">
       <c r="A55" s="124">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B55" s="117" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="C55" s="117" t="s">
         <v>1019</v>
@@ -16590,21 +16593,21 @@
       <c r="H55" s="136"/>
       <c r="I55" s="136"/>
       <c r="J55" s="185" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="K55" s="186" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="L55" s="187" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="26">
+    <row r="56" spans="1:12" ht="25.5">
       <c r="A56" s="124">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B56" s="117" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="C56" s="117" t="s">
         <v>1019</v>
@@ -16614,21 +16617,21 @@
       <c r="H56" s="136"/>
       <c r="I56" s="136"/>
       <c r="J56" s="185" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="K56" s="186" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="L56" s="187" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="26">
+    <row r="57" spans="1:12" ht="25.5">
       <c r="A57" s="124">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B57" s="117" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="C57" s="117" t="s">
         <v>1019</v>
@@ -16638,21 +16641,21 @@
       <c r="H57" s="136"/>
       <c r="I57" s="136"/>
       <c r="J57" s="185" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="K57" s="186" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="L57" s="187" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="26">
+    <row r="58" spans="1:12" ht="25.5">
       <c r="A58" s="124">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B58" s="117" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="C58" s="117" t="s">
         <v>1019</v>
@@ -16662,21 +16665,21 @@
       <c r="H58" s="136"/>
       <c r="I58" s="136"/>
       <c r="J58" s="185" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="K58" s="186" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="L58" s="187" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="39">
+    <row r="59" spans="1:12" ht="25.5">
       <c r="A59" s="124">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B59" s="117" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="C59" s="117" t="s">
         <v>1019</v>
@@ -16686,21 +16689,21 @@
       <c r="H59" s="136"/>
       <c r="I59" s="136"/>
       <c r="J59" s="185" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K59" s="186" t="s">
-        <v>1439</v>
+        <v>1259</v>
       </c>
       <c r="L59" s="187" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="26">
+    <row r="60" spans="1:12" ht="38.25">
       <c r="A60" s="124">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B60" s="117" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="C60" s="117" t="s">
         <v>1019</v>
@@ -16710,663 +16713,673 @@
       <c r="H60" s="136"/>
       <c r="I60" s="136"/>
       <c r="J60" s="185" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="K60" s="186" t="s">
-        <v>1265</v>
+        <v>1438</v>
       </c>
       <c r="L60" s="187" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="26">
-      <c r="A61" s="262">
-        <v>69</v>
-      </c>
-      <c r="B61" s="121" t="s">
-        <v>1441</v>
-      </c>
-      <c r="C61" s="254" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="25.5">
+      <c r="A61" s="124">
+        <v>68</v>
+      </c>
+      <c r="B61" s="117" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C61" s="117" t="s">
         <v>1019</v>
       </c>
-      <c r="D61" s="122"/>
+      <c r="D61" s="117"/>
       <c r="G61" s="136"/>
       <c r="H61" s="136"/>
       <c r="I61" s="136"/>
       <c r="J61" s="185" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="K61" s="186" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="L61" s="187" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="52">
-      <c r="A62" s="116">
-        <v>72</v>
-      </c>
-      <c r="B62" s="115" t="s">
-        <v>1442</v>
-      </c>
-      <c r="C62" s="115" t="s">
-        <v>1443</v>
-      </c>
-      <c r="D62" s="115"/>
+    <row r="62" spans="1:12" ht="25.5">
+      <c r="A62" s="262">
+        <v>69</v>
+      </c>
+      <c r="B62" s="121" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C62" s="254" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D62" s="122"/>
       <c r="G62" s="136"/>
       <c r="H62" s="136"/>
       <c r="I62" s="136"/>
       <c r="J62" s="185" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="K62" s="186" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="L62" s="187" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="104">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="51">
       <c r="A63" s="116">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="B63" s="115" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="C63" s="115" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="D63" s="115"/>
-      <c r="E63" t="s">
-        <v>1780</v>
-      </c>
       <c r="G63" s="136"/>
       <c r="H63" s="136"/>
       <c r="I63" s="136"/>
       <c r="J63" s="185" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="K63" s="186" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="L63" s="187" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="26">
-      <c r="A64" s="253">
-        <v>76</v>
-      </c>
-      <c r="B64" s="117" t="s">
-        <v>1785</v>
-      </c>
-      <c r="C64" s="117" t="s">
-        <v>1411</v>
-      </c>
-      <c r="D64" s="117"/>
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="102">
+      <c r="A64" s="116">
+        <v>120</v>
+      </c>
+      <c r="B64" s="115" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C64" s="115" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D64" s="115"/>
+      <c r="E64" t="s">
+        <v>1779</v>
+      </c>
       <c r="G64" s="136"/>
       <c r="H64" s="136"/>
       <c r="I64" s="136"/>
       <c r="J64" s="185" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="K64" s="186" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="L64" s="187" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" ht="25.5">
       <c r="A65" s="253">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B65" s="117" t="s">
-        <v>1446</v>
+        <v>1784</v>
       </c>
       <c r="C65" s="117" t="s">
-        <v>1447</v>
+        <v>1410</v>
       </c>
       <c r="D65" s="117"/>
       <c r="G65" s="136"/>
       <c r="H65" s="136"/>
       <c r="I65" s="136"/>
-      <c r="J65" s="185">
-        <v>33020</v>
+      <c r="J65" s="185" t="s">
+        <v>1279</v>
       </c>
       <c r="K65" s="186" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="L65" s="187" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="26">
-      <c r="A66" s="125">
-        <v>80</v>
-      </c>
-      <c r="B66" s="126" t="s">
-        <v>1448</v>
-      </c>
-      <c r="C66" s="126" t="s">
-        <v>1449</v>
-      </c>
-      <c r="D66" s="126"/>
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="253">
+        <v>79</v>
+      </c>
+      <c r="B66" s="117" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C66" s="117" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D66" s="117"/>
       <c r="G66" s="136"/>
       <c r="H66" s="136"/>
       <c r="I66" s="136"/>
-      <c r="J66" s="185" t="s">
-        <v>1285</v>
+      <c r="J66" s="185">
+        <v>33020</v>
       </c>
       <c r="K66" s="186" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="L66" s="187" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="26">
-      <c r="A67" s="116">
-        <v>81</v>
-      </c>
-      <c r="B67" s="115" t="s">
-        <v>1450</v>
-      </c>
-      <c r="C67" s="115" t="s">
-        <v>1451</v>
-      </c>
-      <c r="D67" s="115"/>
-      <c r="E67" t="s">
-        <v>1780</v>
-      </c>
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="25.5">
+      <c r="A67" s="125">
+        <v>80</v>
+      </c>
+      <c r="B67" s="126" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C67" s="126" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D67" s="126"/>
       <c r="G67" s="136"/>
       <c r="H67" s="136"/>
       <c r="I67" s="136"/>
       <c r="J67" s="185" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="K67" s="186" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="L67" s="187" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="26">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="25.5">
       <c r="A68" s="116">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B68" s="115" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="C68" s="115" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="D68" s="115"/>
       <c r="E68" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="G68" s="136"/>
       <c r="H68" s="136"/>
       <c r="I68" s="136"/>
       <c r="J68" s="185" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="K68" s="186" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="L68" s="187" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="26">
+    <row r="69" spans="1:12" ht="25.5">
       <c r="A69" s="116">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B69" s="115" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="C69" s="115" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="D69" s="115"/>
       <c r="E69" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="G69" s="136"/>
       <c r="H69" s="136"/>
       <c r="I69" s="136"/>
-      <c r="J69" s="185">
-        <v>45021</v>
+      <c r="J69" s="185" t="s">
+        <v>1293</v>
       </c>
       <c r="K69" s="186" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="L69" s="187" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="39">
-      <c r="A70" s="118">
-        <v>88</v>
-      </c>
-      <c r="B70" s="119" t="s">
-        <v>1454</v>
-      </c>
-      <c r="C70" s="119" t="s">
-        <v>1455</v>
-      </c>
-      <c r="D70" s="119"/>
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="25.5">
+      <c r="A70" s="116">
+        <v>83</v>
+      </c>
+      <c r="B70" s="115" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C70" s="115" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D70" s="115"/>
       <c r="E70" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="G70" s="136"/>
       <c r="H70" s="136"/>
       <c r="I70" s="136"/>
-      <c r="J70" s="185" t="s">
-        <v>1299</v>
+      <c r="J70" s="185">
+        <v>45021</v>
       </c>
       <c r="K70" s="186" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="L70" s="187" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
-      <c r="A71" s="253">
-        <v>84</v>
-      </c>
-      <c r="B71" s="117" t="s">
-        <v>1456</v>
-      </c>
-      <c r="C71" s="254" t="s">
-        <v>1457</v>
-      </c>
-      <c r="D71" s="117"/>
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="38.25">
+      <c r="A71" s="118">
+        <v>88</v>
+      </c>
+      <c r="B71" s="119" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C71" s="119" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D71" s="119"/>
+      <c r="E71" t="s">
+        <v>1779</v>
+      </c>
       <c r="G71" s="136"/>
       <c r="H71" s="136"/>
       <c r="I71" s="136"/>
       <c r="J71" s="185" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="K71" s="186" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="L71" s="187" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="26">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="253">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B72" s="117" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="C72" s="254" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="D72" s="117"/>
       <c r="G72" s="136"/>
       <c r="H72" s="136"/>
       <c r="I72" s="136"/>
       <c r="J72" s="185" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="K72" s="186" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="L72" s="187" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="25.5">
       <c r="A73" s="253">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B73" s="117" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="C73" s="254" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="D73" s="117"/>
       <c r="G73" s="136"/>
       <c r="H73" s="136"/>
       <c r="I73" s="136"/>
       <c r="J73" s="185" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="K73" s="186" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="L73" s="187" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="39">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="253">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B74" s="117" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="C74" s="254" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D74" s="117"/>
       <c r="G74" s="136"/>
       <c r="H74" s="136"/>
       <c r="I74" s="136"/>
       <c r="J74" s="185" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="K74" s="186" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="L74" s="187" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="39">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="38.25">
       <c r="A75" s="253">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B75" s="117" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="C75" s="254" t="s">
-        <v>1464</v>
+        <v>1458</v>
       </c>
       <c r="D75" s="117"/>
       <c r="G75" s="136"/>
       <c r="H75" s="136"/>
       <c r="I75" s="136"/>
       <c r="J75" s="185" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="K75" s="186" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="L75" s="187" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="39">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="38.25">
       <c r="A76" s="253">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B76" s="117" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="C76" s="254" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="D76" s="117"/>
       <c r="G76" s="136"/>
       <c r="H76" s="136"/>
       <c r="I76" s="136"/>
       <c r="J76" s="185" t="s">
-        <v>1345</v>
+        <v>1315</v>
       </c>
       <c r="K76" s="186" t="s">
-        <v>1346</v>
+        <v>1316</v>
       </c>
       <c r="L76" s="187" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="39">
-      <c r="A77" s="118">
-        <v>101</v>
-      </c>
-      <c r="B77" s="119" t="s">
-        <v>1467</v>
-      </c>
-      <c r="C77" s="119" t="s">
-        <v>1468</v>
-      </c>
-      <c r="D77" s="119"/>
-      <c r="E77" t="s">
-        <v>1780</v>
-      </c>
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="38.25">
+      <c r="A77" s="253">
+        <v>94</v>
+      </c>
+      <c r="B77" s="117" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C77" s="254" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D77" s="117"/>
       <c r="G77" s="136"/>
       <c r="H77" s="136"/>
       <c r="I77" s="136"/>
       <c r="J77" s="185" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="K77" s="186" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="L77" s="187" t="s">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="26">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="38.25">
       <c r="A78" s="118">
-        <v>904</v>
+        <v>101</v>
       </c>
       <c r="B78" s="119" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="C78" s="119" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="D78" s="119"/>
       <c r="E78" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="G78" s="136"/>
       <c r="H78" s="136"/>
       <c r="I78" s="136"/>
       <c r="J78" s="185" t="s">
-        <v>1318</v>
+        <v>1348</v>
       </c>
       <c r="K78" s="186" t="s">
-        <v>1319</v>
+        <v>1349</v>
       </c>
       <c r="L78" s="187" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="25.5">
       <c r="A79" s="118">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B79" s="119" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="C79" s="119" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="D79" s="119"/>
       <c r="E79" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="G79" s="136"/>
       <c r="H79" s="136"/>
       <c r="I79" s="136"/>
       <c r="J79" s="185" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="K79" s="186" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="L79" s="187" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="26">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="118">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B80" s="119" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="C80" s="119" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="D80" s="119"/>
       <c r="E80" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="G80" s="136"/>
       <c r="H80" s="136"/>
       <c r="I80" s="136"/>
       <c r="J80" s="185" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="K80" s="186" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="L80" s="187" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="39">
-      <c r="A81" s="116">
-        <v>900</v>
-      </c>
-      <c r="B81" s="114" t="s">
-        <v>1475</v>
-      </c>
-      <c r="C81" s="115" t="s">
-        <v>1476</v>
-      </c>
-      <c r="D81" s="115"/>
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="25.5">
+      <c r="A81" s="118">
+        <v>902</v>
+      </c>
+      <c r="B81" s="119" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C81" s="119" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D81" s="119"/>
       <c r="E81" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="G81" s="136"/>
       <c r="H81" s="136"/>
       <c r="I81" s="136"/>
       <c r="J81" s="185" t="s">
-        <v>1342</v>
+        <v>1324</v>
       </c>
       <c r="K81" s="186" t="s">
-        <v>1343</v>
+        <v>1325</v>
       </c>
       <c r="L81" s="187" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="52">
-      <c r="A82" s="118">
-        <v>901</v>
-      </c>
-      <c r="B82" s="119" t="s">
-        <v>1477</v>
-      </c>
-      <c r="C82" s="119" t="s">
-        <v>1478</v>
-      </c>
-      <c r="D82" s="119"/>
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="38.25">
+      <c r="A82" s="116">
+        <v>900</v>
+      </c>
+      <c r="B82" s="114" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C82" s="115" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D82" s="115"/>
       <c r="E82" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="G82" s="136"/>
       <c r="H82" s="136"/>
       <c r="I82" s="136"/>
       <c r="J82" s="185" t="s">
-        <v>1327</v>
+        <v>1342</v>
       </c>
       <c r="K82" s="186" t="s">
-        <v>1479</v>
+        <v>1343</v>
       </c>
       <c r="L82" s="187" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="26">
-      <c r="A83" s="264">
-        <v>90</v>
-      </c>
-      <c r="B83" s="127" t="s">
-        <v>1480</v>
-      </c>
-      <c r="C83" s="265"/>
-      <c r="D83" s="265"/>
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="51">
+      <c r="A83" s="118">
+        <v>901</v>
+      </c>
+      <c r="B83" s="119" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C83" s="119" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D83" s="119"/>
       <c r="E83" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="G83" s="136"/>
       <c r="H83" s="136"/>
       <c r="I83" s="136"/>
       <c r="J83" s="185" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="K83" s="186" t="s">
-        <v>1331</v>
+        <v>1478</v>
       </c>
       <c r="L83" s="187" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="26">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="25.5">
       <c r="A84" s="264">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B84" s="127" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="C84" s="265"/>
       <c r="D84" s="265"/>
       <c r="E84" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G84" s="136"/>
       <c r="H84" s="136"/>
       <c r="I84" s="136"/>
       <c r="J84" s="185" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="K84" s="186" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="L84" s="187" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="26">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="25.5">
       <c r="A85" s="264">
-        <v>95</v>
-      </c>
-      <c r="B85" s="266" t="s">
-        <v>1482</v>
+        <v>91</v>
+      </c>
+      <c r="B85" s="127" t="s">
+        <v>1480</v>
       </c>
       <c r="C85" s="265"/>
       <c r="D85" s="265"/>
       <c r="E85" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G85" s="136"/>
       <c r="H85" s="136"/>
       <c r="I85" s="136"/>
       <c r="J85" s="185" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="K85" s="186" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="L85" s="187" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="25.5">
+      <c r="A86" s="264">
+        <v>95</v>
+      </c>
+      <c r="B86" s="266" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C86" s="265"/>
+      <c r="D86" s="265"/>
+      <c r="E86" t="s">
+        <v>1780</v>
+      </c>
       <c r="G86" s="136"/>
       <c r="H86" s="136"/>
       <c r="I86" s="136"/>
       <c r="J86" s="185" t="s">
-        <v>1351</v>
+        <v>1336</v>
       </c>
       <c r="K86" s="186" t="s">
-        <v>1352</v>
+        <v>1337</v>
       </c>
       <c r="L86" s="187" t="s">
-        <v>1353</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -17374,13 +17387,13 @@
       <c r="H87" s="136"/>
       <c r="I87" s="136"/>
       <c r="J87" s="185" t="s">
-        <v>1339</v>
+        <v>1351</v>
       </c>
       <c r="K87" s="186" t="s">
-        <v>1340</v>
+        <v>1352</v>
       </c>
       <c r="L87" s="187" t="s">
-        <v>1341</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -17388,31 +17401,45 @@
       <c r="H88" s="136"/>
       <c r="I88" s="136"/>
       <c r="J88" s="185" t="s">
-        <v>1483</v>
+        <v>1339</v>
       </c>
       <c r="K88" s="186" t="s">
-        <v>1484</v>
+        <v>1340</v>
       </c>
       <c r="L88" s="187" t="s">
-        <v>1485</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="16" thickBot="1">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="G89" s="136"/>
       <c r="H89" s="136"/>
       <c r="I89" s="136"/>
-      <c r="J89" s="192" t="s">
+      <c r="J89" s="185" t="s">
+        <v>1482</v>
+      </c>
+      <c r="K89" s="186" t="s">
+        <v>1483</v>
+      </c>
+      <c r="L89" s="187" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="16.5" thickBot="1">
+      <c r="G90" s="136"/>
+      <c r="H90" s="136"/>
+      <c r="I90" s="136"/>
+      <c r="J90" s="192" t="s">
         <v>1354</v>
       </c>
-      <c r="K89" s="193" t="s">
+      <c r="K90" s="193" t="s">
         <v>1355</v>
       </c>
-      <c r="L89" s="194" t="s">
+      <c r="L90" s="194" t="s">
         <v>1356</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D85" xr:uid="{00000000-0001-0000-0D00-000000000000}"/>
+  <autoFilter ref="A2:D86" xr:uid="{00000000-0001-0000-0D00-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="J1:L1"/>
   </mergeCells>
@@ -17431,17 +17458,17 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" customWidth="1"/>
-    <col min="2" max="2" width="16.08203125" customWidth="1"/>
-    <col min="3" max="3" width="19.08203125" customWidth="1"/>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
     <col min="4" max="4" width="83.75" style="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="157" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B2" s="157"/>
       <c r="C2" s="157"/>
@@ -17459,22 +17486,22 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="157" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B4" s="157" t="s">
         <v>1487</v>
       </c>
-      <c r="B4" s="157" t="s">
+      <c r="C4" s="157" t="s">
         <v>1488</v>
       </c>
-      <c r="C4" s="157" t="s">
+      <c r="D4" s="197" t="s">
         <v>1489</v>
       </c>
-      <c r="D4" s="197" t="s">
+      <c r="E4" s="157" t="s">
         <v>1490</v>
       </c>
-      <c r="E4" s="157" t="s">
+      <c r="F4" s="157" t="s">
         <v>1491</v>
-      </c>
-      <c r="F4" s="157" t="s">
-        <v>1492</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -17487,19 +17514,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B6" t="s">
         <v>1493</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>1494</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="40" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E6" t="s">
         <v>1495</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>1633</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1496</v>
       </c>
       <c r="F6" s="195">
         <v>44517</v>
@@ -17507,19 +17534,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B7" t="s">
         <v>1493</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>1494</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="40" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E7" t="s">
         <v>1495</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>1497</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1496</v>
       </c>
       <c r="F7" s="195">
         <v>44517</v>
@@ -17527,10 +17554,10 @@
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1">
       <c r="A9" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C9" t="s">
         <v>1498</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1499</v>
       </c>
       <c r="D9" s="40" t="s">
         <v>269</v>
@@ -17538,96 +17565,96 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C10" t="s">
         <v>1498</v>
       </c>
-      <c r="C10" t="s">
-        <v>1499</v>
-      </c>
       <c r="D10" s="40" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="C11" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="D11" s="87" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="31">
+    <row r="12" spans="1:6" ht="31.5">
       <c r="A12" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B12" t="s">
         <v>416</v>
       </c>
       <c r="C12" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="D12" s="196" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B13" t="s">
         <v>434</v>
       </c>
       <c r="C13" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B14" t="s">
         <v>440</v>
       </c>
       <c r="C14" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D14" s="40" t="s">
         <v>1548</v>
       </c>
-      <c r="D14" s="40" t="s">
-        <v>1549</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="46.5">
+    </row>
+    <row r="16" spans="1:6" ht="47.25">
       <c r="A16" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C16" t="s">
         <v>1501</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" s="40" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="47.25">
+      <c r="A17" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B17" t="s">
         <v>1502</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="46.5">
-      <c r="A17" t="s">
-        <v>1501</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1503</v>
       </c>
       <c r="C17" t="s">
         <v>1019</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B18" s="29">
         <v>80</v>
@@ -17636,7 +17663,7 @@
         <v>1019</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -17647,49 +17674,49 @@
         <v>194</v>
       </c>
       <c r="C21" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D21" s="40" t="s">
         <v>1505</v>
       </c>
-      <c r="D21" s="40" t="s">
+    </row>
+    <row r="24" spans="1:4" ht="31.5">
+      <c r="A24" t="s">
         <v>1506</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="31">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
         <v>1507</v>
       </c>
-      <c r="B24" t="s">
-        <v>1508</v>
-      </c>
       <c r="D24" s="40" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B26" t="s">
         <v>991</v>
       </c>
       <c r="C26" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D26" s="40" t="s">
         <v>1510</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>1511</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B27" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C27" t="s">
         <v>1512</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" s="40" t="s">
         <v>1513</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>1514</v>
       </c>
     </row>
   </sheetData>
@@ -17711,25 +17738,25 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.75" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="19.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="47.83203125" customWidth="1"/>
-    <col min="6" max="6" width="17.08203125" customWidth="1"/>
+    <col min="1" max="1" width="47.875" customWidth="1"/>
+    <col min="6" max="6" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33.75" customHeight="1">
       <c r="A1" s="148" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="B1" s="109"/>
       <c r="E1" s="277" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="F1" s="277"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="23.25" customHeight="1">
@@ -17737,36 +17764,36 @@
         <v>1000</v>
       </c>
       <c r="B3" s="251" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C3" s="251" t="s">
         <v>1515</v>
       </c>
-      <c r="C3" s="251" t="s">
+      <c r="D3" s="251" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E3" s="251" t="s">
         <v>1516</v>
       </c>
-      <c r="D3" s="251" t="s">
-        <v>1702</v>
-      </c>
-      <c r="E3" s="251" t="s">
-        <v>1517</v>
-      </c>
       <c r="F3" s="251" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="277" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="B4" s="277" t="s">
         <v>225</v>
       </c>
       <c r="C4" s="277" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D4" s="277" t="s">
+        <v>1703</v>
+      </c>
+      <c r="E4" s="277" t="s">
         <v>1518</v>
-      </c>
-      <c r="D4" s="277" t="s">
-        <v>1704</v>
-      </c>
-      <c r="E4" s="277" t="s">
-        <v>1519</v>
       </c>
       <c r="F4" s="277" t="s">
         <v>287</v>
@@ -17774,19 +17801,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="277" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B5" s="277" t="s">
         <v>302</v>
       </c>
       <c r="C5" s="277" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D5" s="277" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E5" s="277" t="s">
         <v>1518</v>
-      </c>
-      <c r="D5" s="277" t="s">
-        <v>1705</v>
-      </c>
-      <c r="E5" s="277" t="s">
-        <v>1519</v>
       </c>
       <c r="F5" s="277" t="s">
         <v>299</v>
@@ -17794,36 +17821,36 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="B6" t="s">
         <v>330</v>
       </c>
       <c r="C6" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E6" t="s">
         <v>1518</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1534</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="277" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="B7" s="277" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="C7" s="277" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D7" s="277" t="s">
+        <v>1702</v>
+      </c>
+      <c r="E7" s="277" t="s">
         <v>1518</v>
-      </c>
-      <c r="D7" s="277" t="s">
-        <v>1703</v>
-      </c>
-      <c r="E7" s="277" t="s">
-        <v>1519</v>
       </c>
       <c r="F7" s="277" t="s">
         <v>451</v>
@@ -17831,19 +17858,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="277" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="B8" s="277" t="s">
         <v>291</v>
       </c>
       <c r="C8" s="277" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D8" s="277" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E8" s="277" t="s">
         <v>1518</v>
-      </c>
-      <c r="D8" s="277" t="s">
-        <v>1706</v>
-      </c>
-      <c r="E8" s="277" t="s">
-        <v>1519</v>
       </c>
       <c r="F8" s="277" t="s">
         <v>289</v>
@@ -17851,19 +17878,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="277" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="B9" s="277" t="s">
         <v>291</v>
       </c>
       <c r="C9" s="277" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D9" s="277" t="s">
+        <v>1706</v>
+      </c>
+      <c r="E9" s="277" t="s">
         <v>1518</v>
-      </c>
-      <c r="D9" s="277" t="s">
-        <v>1707</v>
-      </c>
-      <c r="E9" s="277" t="s">
-        <v>1519</v>
       </c>
       <c r="F9" s="277" t="s">
         <v>295</v>
@@ -17877,47 +17904,47 @@
         <v>643</v>
       </c>
       <c r="C10" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1537</v>
+      </c>
+      <c r="E10" t="s">
         <v>1518</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1538</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="B11" t="s">
         <v>643</v>
       </c>
       <c r="C11" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E11" t="s">
         <v>1518</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1522</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="277" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="B12" s="277" t="s">
         <v>225</v>
       </c>
       <c r="C12" s="277" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D12" s="277" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E12" s="277" t="s">
         <v>1518</v>
-      </c>
-      <c r="D12" s="277" t="s">
-        <v>1726</v>
-      </c>
-      <c r="E12" s="277" t="s">
-        <v>1519</v>
       </c>
       <c r="F12" s="277" t="s">
         <v>257</v>
@@ -17925,50 +17952,50 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B13" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C13" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E13" t="s">
         <v>1518</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1708</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="C14" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="D14" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E14" t="s">
         <v>1525</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1526</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="277" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="B15" s="277" t="s">
         <v>225</v>
       </c>
       <c r="C15" s="277" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D15" s="277" t="s">
+        <v>1711</v>
+      </c>
+      <c r="E15" s="277" t="s">
         <v>1518</v>
-      </c>
-      <c r="D15" s="277" t="s">
-        <v>1712</v>
-      </c>
-      <c r="E15" s="277" t="s">
-        <v>1519</v>
       </c>
       <c r="F15" s="277" t="s">
         <v>283</v>
@@ -17976,19 +18003,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="277" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="B16" s="277" t="s">
         <v>225</v>
       </c>
       <c r="C16" s="277" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D16" s="277" t="s">
+        <v>1712</v>
+      </c>
+      <c r="E16" s="277" t="s">
         <v>1518</v>
-      </c>
-      <c r="D16" s="277" t="s">
-        <v>1713</v>
-      </c>
-      <c r="E16" s="277" t="s">
-        <v>1519</v>
       </c>
       <c r="F16" s="277" t="s">
         <v>312</v>
@@ -17996,19 +18023,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="277" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="B17" s="277" t="s">
         <v>398</v>
       </c>
       <c r="C17" s="277" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D17" s="277" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E17" s="277" t="s">
         <v>1518</v>
-      </c>
-      <c r="D17" s="277" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E17" s="277" t="s">
-        <v>1519</v>
       </c>
       <c r="F17" s="277" t="s">
         <v>407</v>
@@ -18016,31 +18043,31 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="C18" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E18" t="s">
         <v>1518</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1747</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="277" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B19" s="277"/>
       <c r="C19" s="277" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D19" s="279" t="s">
+        <v>1541</v>
+      </c>
+      <c r="E19" s="277" t="s">
         <v>1518</v>
-      </c>
-      <c r="D19" s="279" t="s">
-        <v>1542</v>
-      </c>
-      <c r="E19" s="277" t="s">
-        <v>1519</v>
       </c>
       <c r="F19" s="277" t="s">
         <v>441</v>
@@ -18048,31 +18075,31 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="C20" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D20" s="280" t="s">
+        <v>1542</v>
+      </c>
+      <c r="E20" t="s">
         <v>1518</v>
-      </c>
-      <c r="D20" s="280" t="s">
-        <v>1543</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="277" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B21" s="277"/>
       <c r="C21" s="277" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D21" s="279" t="s">
+        <v>1540</v>
+      </c>
+      <c r="E21" s="277" t="s">
         <v>1518</v>
-      </c>
-      <c r="D21" s="279" t="s">
-        <v>1541</v>
-      </c>
-      <c r="E21" s="277" t="s">
-        <v>1519</v>
       </c>
       <c r="F21" s="277" t="s">
         <v>436</v>
@@ -18080,19 +18107,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="277" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B22" s="277" t="s">
         <v>330</v>
       </c>
       <c r="C22" s="277" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D22" s="277" t="s">
+        <v>1715</v>
+      </c>
+      <c r="E22" s="277" t="s">
         <v>1518</v>
-      </c>
-      <c r="D22" s="277" t="s">
-        <v>1716</v>
-      </c>
-      <c r="E22" s="277" t="s">
-        <v>1519</v>
       </c>
       <c r="F22" s="277" t="s">
         <v>328</v>
@@ -18100,19 +18127,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="277" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="B23" s="277" t="s">
         <v>250</v>
       </c>
       <c r="C23" s="277" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D23" s="277" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E23" s="277" t="s">
         <v>1518</v>
-      </c>
-      <c r="D23" s="277" t="s">
-        <v>1715</v>
-      </c>
-      <c r="E23" s="277" t="s">
-        <v>1519</v>
       </c>
       <c r="F23" s="277" t="s">
         <v>248</v>
@@ -18120,34 +18147,34 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B24" t="s">
         <v>225</v>
       </c>
       <c r="C24" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1534</v>
+      </c>
+      <c r="E24" t="s">
         <v>1518</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1535</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="277" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B25" s="277"/>
       <c r="C25" s="277" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="D25" s="277" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="E25" s="277" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="F25" s="277" t="s">
         <v>209</v>
@@ -18155,36 +18182,36 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="B26" t="s">
         <v>266</v>
       </c>
       <c r="C26" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E26" t="s">
         <v>1518</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1717</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="277" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="B27" s="277" t="s">
         <v>366</v>
       </c>
       <c r="C27" s="277" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D27" s="277" t="s">
+        <v>1717</v>
+      </c>
+      <c r="E27" s="277" t="s">
         <v>1518</v>
-      </c>
-      <c r="D27" s="277" t="s">
-        <v>1718</v>
-      </c>
-      <c r="E27" s="277" t="s">
-        <v>1519</v>
       </c>
       <c r="F27" s="277" t="s">
         <v>364</v>
@@ -18192,19 +18219,19 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="277" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="B28" s="277" t="s">
         <v>388</v>
       </c>
       <c r="C28" s="277" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D28" s="277" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E28" s="277" t="s">
         <v>1518</v>
-      </c>
-      <c r="D28" s="277" t="s">
-        <v>1719</v>
-      </c>
-      <c r="E28" s="277" t="s">
-        <v>1519</v>
       </c>
       <c r="F28" s="277" t="s">
         <v>386</v>
@@ -18212,104 +18239,104 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="B29" t="s">
         <v>308</v>
       </c>
       <c r="C29" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1719</v>
+      </c>
+      <c r="E29" t="s">
         <v>1518</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1720</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="B30" t="s">
         <v>308</v>
       </c>
       <c r="C30" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E30" t="s">
         <v>1518</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1721</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="B31" t="s">
         <v>643</v>
       </c>
       <c r="C31" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E31" t="s">
         <v>1518</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1523</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="B32" t="s">
         <v>225</v>
       </c>
       <c r="C32" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E32" t="s">
         <v>1518</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1722</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="B33" t="s">
         <v>336</v>
       </c>
       <c r="C33" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1726</v>
+      </c>
+      <c r="E33" t="s">
         <v>1518</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1727</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="277" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="B34" s="277" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="C34" s="277" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D34" s="277" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E34" s="277" t="s">
         <v>1518</v>
-      </c>
-      <c r="D34" s="277" t="s">
-        <v>1723</v>
-      </c>
-      <c r="E34" s="277" t="s">
-        <v>1519</v>
       </c>
       <c r="F34" s="277" t="s">
         <v>348</v>
@@ -18317,19 +18344,19 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="277" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="B35" s="277" t="s">
         <v>225</v>
       </c>
       <c r="C35" s="277" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D35" s="277" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E35" s="277" t="s">
         <v>1518</v>
-      </c>
-      <c r="D35" s="277" t="s">
-        <v>1724</v>
-      </c>
-      <c r="E35" s="277" t="s">
-        <v>1519</v>
       </c>
       <c r="F35" s="277" t="s">
         <v>338</v>
@@ -18337,19 +18364,19 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="277" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="B36" s="277" t="s">
         <v>225</v>
       </c>
       <c r="C36" s="277" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D36" s="277" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E36" s="277" t="s">
         <v>1518</v>
-      </c>
-      <c r="D36" s="277" t="s">
-        <v>1729</v>
-      </c>
-      <c r="E36" s="277" t="s">
-        <v>1519</v>
       </c>
       <c r="F36" s="277" t="s">
         <v>317</v>
@@ -18357,19 +18384,19 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="277" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="B37" s="277" t="s">
         <v>202</v>
       </c>
       <c r="C37" s="277" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="D37" s="277" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="E37" s="277" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="F37" s="277" t="s">
         <v>200</v>
@@ -18377,93 +18404,93 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="C38" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1724</v>
+      </c>
+      <c r="E38" t="s">
         <v>1518</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1725</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="C39" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1727</v>
+      </c>
+      <c r="E39" t="s">
         <v>1518</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1728</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="C40" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="D40" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="E40" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="B41" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D41" t="s">
         <v>1520</v>
       </c>
-      <c r="C41" t="s">
+      <c r="E41" t="s">
         <v>1518</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1521</v>
-      </c>
-      <c r="E41" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="B42" t="s">
         <v>336</v>
       </c>
       <c r="C42" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1730</v>
+      </c>
+      <c r="E42" t="s">
         <v>1518</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1731</v>
-      </c>
-      <c r="E42" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="277" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="B43" s="277"/>
       <c r="C43" s="277" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D43" s="277" t="s">
+        <v>1731</v>
+      </c>
+      <c r="E43" s="277" t="s">
         <v>1518</v>
-      </c>
-      <c r="D43" s="277" t="s">
-        <v>1732</v>
-      </c>
-      <c r="E43" s="277" t="s">
-        <v>1519</v>
       </c>
       <c r="F43" s="277" t="s">
         <v>416</v>
@@ -18471,36 +18498,36 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="B44" t="s">
         <v>643</v>
       </c>
       <c r="C44" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1732</v>
+      </c>
+      <c r="E44" t="s">
         <v>1518</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1733</v>
-      </c>
-      <c r="E44" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="277" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="B45" s="277" t="s">
         <v>225</v>
       </c>
       <c r="C45" s="277" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D45" s="277" t="s">
+        <v>1733</v>
+      </c>
+      <c r="E45" s="277" t="s">
         <v>1518</v>
-      </c>
-      <c r="D45" s="277" t="s">
-        <v>1734</v>
-      </c>
-      <c r="E45" s="277" t="s">
-        <v>1519</v>
       </c>
       <c r="F45" s="277" t="s">
         <v>321</v>
@@ -18508,132 +18535,132 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="B46" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="C46" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1734</v>
+      </c>
+      <c r="E46" t="s">
         <v>1518</v>
-      </c>
-      <c r="D46" t="s">
-        <v>1735</v>
-      </c>
-      <c r="E46" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="B47" t="s">
         <v>225</v>
       </c>
       <c r="C47" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E47" t="s">
         <v>1518</v>
-      </c>
-      <c r="D47" t="s">
-        <v>1737</v>
-      </c>
-      <c r="E47" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="B48" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C48" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1737</v>
+      </c>
+      <c r="E48" t="s">
         <v>1518</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1738</v>
-      </c>
-      <c r="E48" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="C49" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1738</v>
+      </c>
+      <c r="E49" t="s">
         <v>1518</v>
-      </c>
-      <c r="D49" t="s">
-        <v>1739</v>
-      </c>
-      <c r="E49" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="C50" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="D50" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="E50" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="B51" t="s">
         <v>308</v>
       </c>
       <c r="C51" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1745</v>
+      </c>
+      <c r="E51" t="s">
         <v>1518</v>
-      </c>
-      <c r="D51" t="s">
-        <v>1746</v>
-      </c>
-      <c r="E51" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="B52" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C52" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1741</v>
+      </c>
+      <c r="E52" t="s">
         <v>1518</v>
-      </c>
-      <c r="D52" t="s">
-        <v>1742</v>
-      </c>
-      <c r="E52" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="277" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="B53" s="277" t="s">
         <v>225</v>
       </c>
       <c r="C53" s="277" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D53" s="277" t="s">
+        <v>1742</v>
+      </c>
+      <c r="E53" s="277" t="s">
         <v>1518</v>
-      </c>
-      <c r="D53" s="277" t="s">
-        <v>1743</v>
-      </c>
-      <c r="E53" s="277" t="s">
-        <v>1519</v>
       </c>
       <c r="F53" s="277" t="s">
         <v>278</v>
@@ -18645,13 +18672,13 @@
       </c>
       <c r="B54" s="277"/>
       <c r="C54" s="277" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D54" s="277" t="s">
+        <v>1743</v>
+      </c>
+      <c r="E54" s="277" t="s">
         <v>1518</v>
-      </c>
-      <c r="D54" s="277" t="s">
-        <v>1744</v>
-      </c>
-      <c r="E54" s="277" t="s">
-        <v>1519</v>
       </c>
       <c r="F54" s="277" t="s">
         <v>358</v>
@@ -18659,19 +18686,19 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="277" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="B55" s="277" t="s">
         <v>225</v>
       </c>
       <c r="C55" s="277" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D55" s="277" t="s">
+        <v>1744</v>
+      </c>
+      <c r="E55" s="277" t="s">
         <v>1518</v>
-      </c>
-      <c r="D55" s="277" t="s">
-        <v>1745</v>
-      </c>
-      <c r="E55" s="277" t="s">
-        <v>1519</v>
       </c>
       <c r="F55" s="277" t="s">
         <v>233</v>
@@ -18679,19 +18706,19 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="277" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="B56" s="277" t="s">
         <v>398</v>
       </c>
       <c r="C56" s="277" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D56" s="277" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E56" s="277" t="s">
         <v>1518</v>
-      </c>
-      <c r="D56" s="277" t="s">
-        <v>1539</v>
-      </c>
-      <c r="E56" s="277" t="s">
-        <v>1519</v>
       </c>
       <c r="F56" s="277" t="s">
         <v>397</v>
@@ -18699,19 +18726,19 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="277" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="B57" s="277" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="C57" s="277" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D57" s="278" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E57" s="277" t="s">
         <v>1518</v>
-      </c>
-      <c r="D57" s="278" t="s">
-        <v>1741</v>
-      </c>
-      <c r="E57" s="277" t="s">
-        <v>1519</v>
       </c>
       <c r="F57" s="277" t="s">
         <v>445</v>
@@ -18719,53 +18746,53 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="B58" t="s">
         <v>225</v>
       </c>
       <c r="C58" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1536</v>
+      </c>
+      <c r="E58" t="s">
         <v>1518</v>
-      </c>
-      <c r="D58" t="s">
-        <v>1537</v>
-      </c>
-      <c r="E58" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B59" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D59" t="s">
         <v>1527</v>
       </c>
-      <c r="C59" t="s">
-        <v>1518</v>
-      </c>
-      <c r="D59" t="s">
-        <v>1528</v>
-      </c>
       <c r="E59" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="277" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B60" s="277" t="s">
         <v>1531</v>
       </c>
-      <c r="B60" s="277" t="s">
+      <c r="C60" s="277" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D60" s="277" t="s">
         <v>1532</v>
       </c>
-      <c r="C60" s="277" t="s">
+      <c r="E60" s="277" t="s">
         <v>1518</v>
-      </c>
-      <c r="D60" s="277" t="s">
-        <v>1533</v>
-      </c>
-      <c r="E60" s="277" t="s">
-        <v>1519</v>
       </c>
       <c r="F60" s="277" t="s">
         <v>362</v>
@@ -18773,70 +18800,70 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="B61" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="C61" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1523</v>
+      </c>
+      <c r="E61" t="s">
         <v>1518</v>
-      </c>
-      <c r="D61" t="s">
-        <v>1524</v>
-      </c>
-      <c r="E61" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="B62" t="s">
         <v>643</v>
       </c>
       <c r="C62" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1735</v>
+      </c>
+      <c r="E62" t="s">
         <v>1518</v>
-      </c>
-      <c r="D62" t="s">
-        <v>1736</v>
-      </c>
-      <c r="E62" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="B63" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="C63" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1750</v>
+      </c>
+      <c r="E63" t="s">
         <v>1518</v>
-      </c>
-      <c r="D63" t="s">
-        <v>1751</v>
-      </c>
-      <c r="E63" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="277" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B64" s="277" t="s">
         <v>398</v>
       </c>
       <c r="C64" s="277" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D64" s="277" t="s">
+        <v>1747</v>
+      </c>
+      <c r="E64" s="277" t="s">
         <v>1518</v>
-      </c>
-      <c r="D64" s="277" t="s">
-        <v>1748</v>
-      </c>
-      <c r="E64" s="277" t="s">
-        <v>1519</v>
       </c>
       <c r="F64" s="277" t="s">
         <v>405</v>
@@ -18844,19 +18871,19 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="277" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B65" s="277" t="s">
         <v>225</v>
       </c>
       <c r="C65" s="277" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D65" s="277" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E65" s="277" t="s">
         <v>1518</v>
-      </c>
-      <c r="D65" s="277" t="s">
-        <v>1749</v>
-      </c>
-      <c r="E65" s="277" t="s">
-        <v>1519</v>
       </c>
       <c r="F65" s="277" t="s">
         <v>223</v>
@@ -18864,17 +18891,17 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="277" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="B66" s="277"/>
       <c r="C66" s="277" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="D66" s="277" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="E66" s="277" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="F66" s="277" t="s">
         <v>206</v>
@@ -18882,19 +18909,19 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="277" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="B67" s="277" t="s">
         <v>398</v>
       </c>
       <c r="C67" s="277" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D67" s="277" t="s">
+        <v>1749</v>
+      </c>
+      <c r="E67" s="277" t="s">
         <v>1518</v>
-      </c>
-      <c r="D67" s="277" t="s">
-        <v>1750</v>
-      </c>
-      <c r="E67" s="277" t="s">
-        <v>1519</v>
       </c>
       <c r="F67" s="277" t="s">
         <v>401</v>
@@ -18902,50 +18929,50 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="C68" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1753</v>
+      </c>
+      <c r="E68" t="s">
         <v>1518</v>
-      </c>
-      <c r="D68" t="s">
-        <v>1754</v>
-      </c>
-      <c r="E68" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="B69" t="s">
         <v>382</v>
       </c>
       <c r="C69" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E69" t="s">
         <v>1518</v>
-      </c>
-      <c r="D69" t="s">
-        <v>1529</v>
-      </c>
-      <c r="E69" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="277" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="B70" s="277" t="s">
         <v>336</v>
       </c>
       <c r="C70" s="277" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D70" s="277" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E70" s="277" t="s">
         <v>1518</v>
-      </c>
-      <c r="D70" s="277" t="s">
-        <v>1753</v>
-      </c>
-      <c r="E70" s="277" t="s">
-        <v>1519</v>
       </c>
       <c r="F70" s="277" t="s">
         <v>370</v>
@@ -18953,19 +18980,19 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="277" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="B71" s="277" t="s">
         <v>225</v>
       </c>
       <c r="C71" s="277" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D71" s="277" t="s">
+        <v>1751</v>
+      </c>
+      <c r="E71" s="277" t="s">
         <v>1518</v>
-      </c>
-      <c r="D71" s="277" t="s">
-        <v>1752</v>
-      </c>
-      <c r="E71" s="277" t="s">
-        <v>1519</v>
       </c>
       <c r="F71" s="277" t="s">
         <v>324</v>
@@ -18979,30 +19006,30 @@
         <v>398</v>
       </c>
       <c r="C72" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1539</v>
+      </c>
+      <c r="E72" t="s">
         <v>1518</v>
-      </c>
-      <c r="D72" t="s">
-        <v>1540</v>
-      </c>
-      <c r="E72" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="277" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B73" s="277" t="s">
         <v>225</v>
       </c>
       <c r="C73" s="277" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D73" s="277" t="s">
+        <v>1756</v>
+      </c>
+      <c r="E73" s="277" t="s">
         <v>1518</v>
-      </c>
-      <c r="D73" s="277" t="s">
-        <v>1757</v>
-      </c>
-      <c r="E73" s="277" t="s">
-        <v>1519</v>
       </c>
       <c r="F73" s="277" t="s">
         <v>242</v>
@@ -19010,19 +19037,19 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="277" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="B74" s="277" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="C74" s="277" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D74" s="277" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E74" s="277" t="s">
         <v>1518</v>
-      </c>
-      <c r="D74" s="277" t="s">
-        <v>1758</v>
-      </c>
-      <c r="E74" s="277" t="s">
-        <v>1519</v>
       </c>
       <c r="F74" s="277" t="s">
         <v>412</v>
@@ -19030,19 +19057,19 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="277" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="B75" s="277" t="s">
         <v>225</v>
       </c>
       <c r="C75" s="277" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D75" s="277" t="s">
+        <v>1755</v>
+      </c>
+      <c r="E75" s="277" t="s">
         <v>1518</v>
-      </c>
-      <c r="D75" s="277" t="s">
-        <v>1756</v>
-      </c>
-      <c r="E75" s="277" t="s">
-        <v>1519</v>
       </c>
       <c r="F75" s="277" t="s">
         <v>272</v>
@@ -19050,67 +19077,67 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="C76" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1754</v>
+      </c>
+      <c r="E76" t="s">
         <v>1518</v>
-      </c>
-      <c r="D76" t="s">
-        <v>1755</v>
-      </c>
-      <c r="E76" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B77" t="s">
         <v>308</v>
       </c>
       <c r="C77" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E77" t="s">
         <v>1518</v>
-      </c>
-      <c r="D77" t="s">
-        <v>1759</v>
-      </c>
-      <c r="E77" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="B78" t="s">
         <v>599</v>
       </c>
       <c r="C78" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1759</v>
+      </c>
+      <c r="E78" t="s">
         <v>1518</v>
-      </c>
-      <c r="D78" t="s">
-        <v>1760</v>
-      </c>
-      <c r="E78" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="277" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="B79" s="277" t="s">
         <v>195</v>
       </c>
       <c r="C79" s="277" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="D79" s="277" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="E79" s="277" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="F79" s="277" t="s">
         <v>192</v>
@@ -19118,17 +19145,17 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="277" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="B80" s="277"/>
       <c r="C80" s="277" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D80" s="277" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E80" s="277" t="s">
         <v>1518</v>
-      </c>
-      <c r="D80" s="277" t="s">
-        <v>1761</v>
-      </c>
-      <c r="E80" s="277" t="s">
-        <v>1519</v>
       </c>
       <c r="F80" s="277" t="s">
         <v>353</v>
@@ -19158,25 +19185,25 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="46.58203125" customWidth="1"/>
-    <col min="4" max="4" width="41.58203125" customWidth="1"/>
+    <col min="3" max="3" width="46.625" customWidth="1"/>
+    <col min="4" max="4" width="41.625" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="10.58203125" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="25.08203125" customWidth="1"/>
-    <col min="10" max="10" width="163.33203125" customWidth="1"/>
+    <col min="8" max="8" width="25.125" customWidth="1"/>
+    <col min="10" max="10" width="163.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.5">
+    <row r="1" spans="1:10" ht="23.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="31">
+    <row r="3" spans="1:10" ht="31.5">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -19199,7 +19226,7 @@
         <v>7</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -19274,7 +19301,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="31">
+    <row r="8" spans="1:10" ht="31.5">
       <c r="A8" s="6" t="s">
         <v>23</v>
       </c>
@@ -19296,7 +19323,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="31">
+    <row r="9" spans="1:10" ht="31.5">
       <c r="A9" s="6" t="s">
         <v>29</v>
       </c>
@@ -19318,7 +19345,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="46.5">
+    <row r="10" spans="1:10" ht="63">
       <c r="A10" s="6" t="s">
         <v>34</v>
       </c>
@@ -19340,7 +19367,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="31">
+    <row r="11" spans="1:10" ht="31.5">
       <c r="A11" s="6" t="s">
         <v>39</v>
       </c>
@@ -19354,7 +19381,7 @@
       <c r="E11" s="17"/>
       <c r="F11" s="6"/>
       <c r="G11" s="11" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>12</v>
@@ -19422,7 +19449,7 @@
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
     </row>
-    <row r="15" spans="1:10" ht="46.5">
+    <row r="15" spans="1:10" ht="47.25">
       <c r="A15" s="6" t="s">
         <v>51</v>
       </c>
@@ -19430,13 +19457,13 @@
         <v>52</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="15"/>
       <c r="F15" s="10"/>
       <c r="G15" s="16" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="H15" s="17" t="s">
         <v>38</v>
@@ -19444,7 +19471,7 @@
       <c r="I15" s="19"/>
       <c r="J15" s="19"/>
     </row>
-    <row r="16" spans="1:10" ht="46.5">
+    <row r="16" spans="1:10" ht="47.25">
       <c r="A16" s="6" t="s">
         <v>53</v>
       </c>
@@ -19452,13 +19479,13 @@
         <v>52</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="15"/>
       <c r="F16" s="10"/>
       <c r="G16" s="16" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="H16" s="17" t="s">
         <v>38</v>
@@ -19466,7 +19493,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="19"/>
     </row>
-    <row r="17" spans="1:10" ht="46.5">
+    <row r="17" spans="1:10" ht="47.25">
       <c r="A17" s="6" t="s">
         <v>54</v>
       </c>
@@ -19474,13 +19501,13 @@
         <v>52</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="15"/>
       <c r="F17" s="10"/>
       <c r="G17" s="16" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H17" s="17" t="s">
         <v>38</v>
@@ -19590,7 +19617,7 @@
       <c r="I22" s="19"/>
       <c r="J22" s="19"/>
     </row>
-    <row r="23" spans="1:10" ht="31">
+    <row r="23" spans="1:10" ht="31.5">
       <c r="A23" s="6" t="s">
         <v>69</v>
       </c>
@@ -19700,7 +19727,7 @@
       <c r="I27" s="19"/>
       <c r="J27" s="19"/>
     </row>
-    <row r="28" spans="1:10" ht="31">
+    <row r="28" spans="1:10" ht="31.5">
       <c r="A28" s="6" t="s">
         <v>87</v>
       </c>
@@ -19739,7 +19766,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
   </sheetData>
@@ -19767,25 +19794,25 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.58203125" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="41.33203125" customWidth="1"/>
-    <col min="4" max="4" width="39.33203125" customWidth="1"/>
+    <col min="3" max="3" width="41.375" customWidth="1"/>
+    <col min="4" max="4" width="39.375" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="7.58203125" customWidth="1"/>
+    <col min="6" max="6" width="7.625" customWidth="1"/>
     <col min="7" max="7" width="46" customWidth="1"/>
-    <col min="8" max="8" width="23.08203125" style="29" customWidth="1"/>
+    <col min="8" max="8" width="23.125" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.5">
+    <row r="1" spans="1:8" ht="23.25">
       <c r="A1" s="1" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="B1" s="30"/>
     </row>
-    <row r="3" spans="1:8" ht="46.5">
+    <row r="3" spans="1:8" ht="47.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -19808,10 +19835,10 @@
         <v>7</v>
       </c>
       <c r="H3" s="164" t="s">
-        <v>1836</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="31">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="31.5">
       <c r="A4" s="6" t="s">
         <v>91</v>
       </c>
@@ -19849,13 +19876,13 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="16" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="62">
+    <row r="6" spans="1:8" ht="63">
       <c r="A6" s="6" t="s">
         <v>99</v>
       </c>
@@ -19863,7 +19890,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>100</v>
@@ -19899,7 +19926,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="31">
+    <row r="8" spans="1:8" ht="31.5">
       <c r="A8" s="6" t="s">
         <v>105</v>
       </c>
@@ -19913,7 +19940,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="16" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>95</v>
@@ -19977,7 +20004,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="31">
+    <row r="12" spans="1:8" ht="31.5">
       <c r="A12" s="6" t="s">
         <v>116</v>
       </c>
@@ -20046,21 +20073,21 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="39" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="G19" s="29"/>
       <c r="H19"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="G20" s="29"/>
       <c r="H20"/>
@@ -20089,21 +20116,21 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.08203125" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="22.125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.58203125" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" customWidth="1"/>
-    <col min="4" max="4" width="22.08203125" style="40"/>
-    <col min="5" max="5" width="19.08203125" customWidth="1"/>
-    <col min="6" max="6" width="9.58203125" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="40"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
+    <col min="6" max="6" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.5">
+    <row r="1" spans="1:8" ht="23.25">
       <c r="A1" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="31.5">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -20126,7 +20153,7 @@
         <v>7</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -20185,7 +20212,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="31">
+    <row r="7" spans="1:8" ht="31.5">
       <c r="A7" s="6" t="s">
         <v>133</v>
       </c>
@@ -20196,18 +20223,18 @@
         <v>134</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="E7" s="32"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="H7" s="17" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="31">
+    <row r="8" spans="1:8" ht="31.5">
       <c r="A8" s="6" t="s">
         <v>135</v>
       </c>
@@ -20215,7 +20242,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="D8" s="42" t="s">
         <v>136</v>
@@ -20229,7 +20256,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="77.5">
+    <row r="9" spans="1:8" ht="78.75">
       <c r="A9" s="6" t="s">
         <v>138</v>
       </c>
@@ -20251,7 +20278,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="77.5">
+    <row r="10" spans="1:8" ht="78.75">
       <c r="A10" s="6" t="s">
         <v>141</v>
       </c>
@@ -20267,7 +20294,7 @@
       <c r="E10" s="32"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="H10" s="17" t="s">
         <v>127</v>
@@ -20282,21 +20309,21 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="26" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="C14" s="40"/>
       <c r="D14"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="43" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="C15" s="40"/>
       <c r="D15"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="157" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="C16" s="40"/>
       <c r="D16"/>
@@ -20321,21 +20348,21 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="3" max="3" width="24.5" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" customWidth="1"/>
-    <col min="5" max="5" width="13.58203125" customWidth="1"/>
-    <col min="7" max="7" width="15.58203125" customWidth="1"/>
-    <col min="8" max="8" width="19.58203125" customWidth="1"/>
+    <col min="4" max="4" width="19.875" customWidth="1"/>
+    <col min="5" max="5" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="15.625" customWidth="1"/>
+    <col min="8" max="8" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.5">
+    <row r="1" spans="1:8" ht="23.25">
       <c r="A1" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="31">
+    <row r="3" spans="1:8" ht="31.5">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -20358,7 +20385,7 @@
         <v>7</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -20369,7 +20396,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="132" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="D4" s="133"/>
       <c r="E4" s="133"/>
@@ -20420,7 +20447,7 @@
         <v>153</v>
       </c>
       <c r="D7" s="130" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E7" s="130"/>
       <c r="F7" s="130"/>
@@ -20434,7 +20461,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="128" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
   </sheetData>
@@ -20457,25 +20484,25 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" customWidth="1"/>
-    <col min="3" max="3" width="38.08203125" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="8.875" customWidth="1"/>
+    <col min="3" max="3" width="38.125" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="9.58203125" customWidth="1"/>
-    <col min="7" max="7" width="15.58203125" customWidth="1"/>
-    <col min="8" max="8" width="34.08203125" customWidth="1"/>
-    <col min="9" max="9" width="24.08203125" customWidth="1"/>
+    <col min="6" max="6" width="9.625" customWidth="1"/>
+    <col min="7" max="7" width="15.625" customWidth="1"/>
+    <col min="8" max="8" width="34.125" customWidth="1"/>
+    <col min="9" max="9" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.5">
+    <row r="1" spans="1:8" ht="23.25">
       <c r="A1" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="31">
+    <row r="3" spans="1:8" ht="31.5">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -20498,7 +20525,7 @@
         <v>7</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -20509,7 +20536,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="132" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="D4" s="133"/>
       <c r="E4" s="133"/>
@@ -20547,10 +20574,10 @@
         <v>24</v>
       </c>
       <c r="C6" s="134" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="D6" s="133" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="E6" s="133"/>
       <c r="F6" s="133"/>
@@ -20570,7 +20597,7 @@
         <v>164</v>
       </c>
       <c r="D7" s="136" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E7" s="133"/>
       <c r="F7" s="133"/>
@@ -20617,22 +20644,22 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="3" max="3" width="32.5" customWidth="1"/>
-    <col min="4" max="4" width="16.58203125" customWidth="1"/>
-    <col min="5" max="5" width="20.08203125" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" customWidth="1"/>
-    <col min="8" max="8" width="33.08203125" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="7" max="7" width="22.375" customWidth="1"/>
+    <col min="8" max="8" width="33.125" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.5">
+    <row r="1" spans="1:9" ht="23.25">
       <c r="A1" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="31">
+    <row r="3" spans="1:9" ht="31.5">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -20655,7 +20682,7 @@
         <v>7</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -20864,23 +20891,23 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.58203125" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" customWidth="1"/>
-    <col min="3" max="3" width="37.33203125" customWidth="1"/>
-    <col min="4" max="4" width="22.08203125"/>
-    <col min="5" max="5" width="19.08203125" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" customWidth="1"/>
-    <col min="7" max="8" width="22.08203125"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="37.375" customWidth="1"/>
+    <col min="4" max="4" width="22.125"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="7" max="8" width="22.125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23.5">
+    <row r="1" spans="1:13" ht="23.25">
       <c r="A1" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" ht="31.5">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -20903,7 +20930,7 @@
         <v>7</v>
       </c>
       <c r="H3" s="49" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="I3" s="50"/>
     </row>
@@ -20999,7 +21026,7 @@
         <v>150</v>
       </c>
       <c r="C8" s="142" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="D8" s="140"/>
       <c r="E8" s="132" t="s">
@@ -21022,7 +21049,7 @@
         <v>150</v>
       </c>
       <c r="C9" s="142" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="D9" s="140"/>
       <c r="E9" s="132" t="s">
@@ -21045,7 +21072,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="142" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="D10" s="140"/>
       <c r="E10" s="132"/>
@@ -21064,7 +21091,7 @@
         <v>150</v>
       </c>
       <c r="C11" s="138" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D11" s="138"/>
       <c r="E11" s="138" t="s">
@@ -21074,7 +21101,7 @@
         <v>208</v>
       </c>
       <c r="G11" s="138" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="H11" s="144" t="s">
         <v>197</v>
@@ -21093,7 +21120,7 @@
         <v>150</v>
       </c>
       <c r="C12" s="138" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="D12" s="138"/>
       <c r="E12" s="138" t="s">
@@ -21103,7 +21130,7 @@
         <v>210</v>
       </c>
       <c r="G12" s="138" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="H12" s="144" t="s">
         <v>197</v>
@@ -21128,7 +21155,7 @@
       <c r="E13" s="138"/>
       <c r="F13" s="138"/>
       <c r="G13" s="138" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="H13" s="144" t="s">
         <v>197</v>
@@ -21157,7 +21184,7 @@
         <v>218</v>
       </c>
       <c r="G14" s="138" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="H14" s="144" t="s">
         <v>197</v>
@@ -21182,7 +21209,7 @@
       <c r="E15" s="138"/>
       <c r="F15" s="138"/>
       <c r="G15" s="138" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="H15" s="130" t="s">
         <v>197</v>
@@ -21195,13 +21222,13 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="146" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="B16" s="147" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="138" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="D16" s="138"/>
       <c r="E16" s="138" t="s">
@@ -21209,7 +21236,7 @@
       </c>
       <c r="F16" s="138"/>
       <c r="G16" s="138" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="H16" s="130" t="s">
         <v>197</v>
@@ -21222,19 +21249,19 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="146" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="B17" s="147" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="138" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="D17" s="138"/>
       <c r="E17" s="138"/>
       <c r="F17" s="138"/>
       <c r="G17" s="138" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="H17" s="130" t="s">
         <v>197</v>
@@ -21264,20 +21291,20 @@
       <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="3" width="11" style="54"/>
-    <col min="4" max="4" width="41.58203125" style="55" customWidth="1"/>
+    <col min="4" max="4" width="41.625" style="55" customWidth="1"/>
     <col min="5" max="5" width="21.5" style="56" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.375" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="28" style="40" customWidth="1"/>
     <col min="9" max="9" width="29" style="56" customWidth="1"/>
-    <col min="10" max="10" width="99.08203125" customWidth="1"/>
+    <col min="10" max="10" width="99.125" customWidth="1"/>
     <col min="11" max="11" width="42.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="56" customFormat="1" ht="23.5">
+    <row r="1" spans="1:32" s="56" customFormat="1" ht="23.25">
       <c r="A1" s="57" t="s">
         <v>221</v>
       </c>
@@ -21286,14 +21313,14 @@
       <c r="D1" s="55"/>
       <c r="H1" s="59"/>
     </row>
-    <row r="2" spans="1:32" s="56" customFormat="1" ht="18.5">
+    <row r="2" spans="1:32" s="56" customFormat="1" ht="18.75">
       <c r="A2" s="60"/>
       <c r="B2" s="58"/>
       <c r="C2" s="58"/>
       <c r="D2" s="55"/>
       <c r="H2" s="59"/>
     </row>
-    <row r="3" spans="1:32" ht="31">
+    <row r="3" spans="1:32" ht="31.5">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -21319,7 +21346,7 @@
         <v>7</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="4" spans="1:32" s="66" customFormat="1">
@@ -21419,7 +21446,7 @@
       </c>
       <c r="C6" s="62"/>
       <c r="D6" s="63" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="E6" s="64"/>
       <c r="F6" s="61" t="s">
@@ -21427,7 +21454,7 @@
       </c>
       <c r="G6" s="61"/>
       <c r="H6" s="65" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="I6" s="64" t="s">
         <v>227</v>
@@ -21471,7 +21498,7 @@
       <c r="F7" s="61"/>
       <c r="G7" s="61"/>
       <c r="H7" s="65" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="I7" s="64" t="s">
         <v>227</v>
@@ -21597,7 +21624,7 @@
       </c>
       <c r="C10" s="68"/>
       <c r="D10" s="69" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="E10" s="70"/>
       <c r="F10" s="67" t="s">
@@ -21605,7 +21632,7 @@
       </c>
       <c r="G10" s="67"/>
       <c r="H10" s="71" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="I10" s="64" t="s">
         <v>227</v>
@@ -21649,7 +21676,7 @@
       <c r="F11" s="67"/>
       <c r="G11" s="67"/>
       <c r="H11" s="71" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="I11" s="64" t="s">
         <v>227</v>
@@ -21737,7 +21764,7 @@
         <v>26</v>
       </c>
       <c r="D13" s="63" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="E13" s="64"/>
       <c r="F13" s="61"/>
@@ -21781,7 +21808,7 @@
         <v>26</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="E14" s="64"/>
       <c r="F14" s="61" t="s">
@@ -21789,7 +21816,7 @@
       </c>
       <c r="G14" s="61"/>
       <c r="H14" s="65" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="I14" s="64" t="s">
         <v>227</v>
@@ -21829,13 +21856,13 @@
         <v>26</v>
       </c>
       <c r="D15" s="63" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="E15" s="64"/>
       <c r="F15" s="61"/>
       <c r="G15" s="61"/>
       <c r="H15" s="65" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="I15" s="64" t="s">
         <v>227</v>
@@ -21965,7 +21992,7 @@
       </c>
       <c r="C18" s="68"/>
       <c r="D18" s="69" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="E18" s="70"/>
       <c r="F18" s="67" t="s">
@@ -21973,7 +22000,7 @@
       </c>
       <c r="G18" s="67"/>
       <c r="H18" s="71" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="I18" s="64" t="s">
         <v>227</v>
@@ -22017,7 +22044,7 @@
       <c r="F19" s="67"/>
       <c r="G19" s="67"/>
       <c r="H19" s="71" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="I19" s="64" t="s">
         <v>227</v>
@@ -22143,7 +22170,7 @@
       </c>
       <c r="C22" s="62"/>
       <c r="D22" s="63" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="E22" s="64"/>
       <c r="F22" s="61" t="s">
@@ -22151,7 +22178,7 @@
       </c>
       <c r="G22" s="61"/>
       <c r="H22" s="65" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="I22" s="64" t="s">
         <v>227</v>
@@ -22189,13 +22216,13 @@
       </c>
       <c r="C23" s="62"/>
       <c r="D23" s="63" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="E23" s="64"/>
       <c r="F23" s="61"/>
       <c r="G23" s="61"/>
       <c r="H23" s="65" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="I23" s="64" t="s">
         <v>227</v>
@@ -22224,9 +22251,9 @@
       <c r="AE23"/>
       <c r="AF23"/>
     </row>
-    <row r="24" spans="1:32" s="72" customFormat="1" ht="46.5">
+    <row r="24" spans="1:32" s="72" customFormat="1" ht="47.25">
       <c r="A24" s="73" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B24" s="73" t="s">
         <v>150</v>
@@ -22272,7 +22299,7 @@
     </row>
     <row r="25" spans="1:32" s="72" customFormat="1">
       <c r="A25" s="73" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="B25" s="73" t="s">
         <v>16</v>
@@ -22314,9 +22341,9 @@
       <c r="AE25"/>
       <c r="AF25"/>
     </row>
-    <row r="26" spans="1:32" s="72" customFormat="1" ht="46.5">
+    <row r="26" spans="1:32" s="72" customFormat="1" ht="47.25">
       <c r="A26" s="68" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B26" s="68" t="s">
         <v>150</v>
@@ -22325,7 +22352,7 @@
         <v>26</v>
       </c>
       <c r="D26" s="161" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="E26" s="70"/>
       <c r="F26" s="67"/>
@@ -22362,7 +22389,7 @@
     </row>
     <row r="27" spans="1:32" s="72" customFormat="1">
       <c r="A27" s="68" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="B27" s="68" t="s">
         <v>16</v>
@@ -22643,7 +22670,7 @@
         <v>26</v>
       </c>
       <c r="D33" s="63" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="E33" s="64"/>
       <c r="F33" s="61"/>
@@ -22687,7 +22714,7 @@
         <v>26</v>
       </c>
       <c r="D34" s="69" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="E34" s="70"/>
       <c r="F34" s="67" t="s">
@@ -22735,7 +22762,7 @@
         <v>26</v>
       </c>
       <c r="D35" s="69" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="E35" s="70"/>
       <c r="F35" s="67"/>
@@ -22865,7 +22892,7 @@
       </c>
       <c r="C38" s="68"/>
       <c r="D38" s="69" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="E38" s="70"/>
       <c r="F38" s="67" t="s">
@@ -23221,7 +23248,7 @@
       </c>
       <c r="C47" s="62"/>
       <c r="D47" s="63" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E47" s="64"/>
       <c r="F47" s="61"/>
@@ -23309,7 +23336,7 @@
       </c>
       <c r="C49" s="62"/>
       <c r="D49" s="63" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="E49" s="64"/>
       <c r="F49" s="61"/>
@@ -23397,7 +23424,7 @@
       </c>
       <c r="C51" s="62"/>
       <c r="D51" s="63" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="E51" s="64"/>
       <c r="F51" s="61"/>
@@ -23937,7 +23964,7 @@
       </c>
       <c r="C63" s="68"/>
       <c r="D63" s="69" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="E63" s="70"/>
       <c r="F63" s="67"/>
@@ -23981,7 +24008,7 @@
         <v>26</v>
       </c>
       <c r="D64" s="63" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="E64" s="64"/>
       <c r="F64" s="61"/>
@@ -24025,7 +24052,7 @@
         <v>26</v>
       </c>
       <c r="D65" s="63" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="E65" s="64"/>
       <c r="F65" s="61"/>
@@ -24599,7 +24626,7 @@
       </c>
       <c r="C78" s="62"/>
       <c r="D78" s="63" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="E78" s="64"/>
       <c r="F78" s="61" t="s">
@@ -24685,7 +24712,7 @@
       </c>
       <c r="C80" s="68"/>
       <c r="D80" s="69" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="E80" s="70"/>
       <c r="F80" s="67" t="s">
@@ -24731,7 +24758,7 @@
       </c>
       <c r="C81" s="68"/>
       <c r="D81" s="69" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="E81" s="70"/>
       <c r="F81" s="67"/>
@@ -24773,7 +24800,7 @@
       </c>
       <c r="C82" s="68"/>
       <c r="D82" s="69" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="E82" s="70"/>
       <c r="F82" s="67" t="s">
@@ -24819,7 +24846,7 @@
       </c>
       <c r="C83" s="68"/>
       <c r="D83" s="69" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="E83" s="70"/>
       <c r="F83" s="67"/>
@@ -24861,7 +24888,7 @@
       </c>
       <c r="C84" s="68"/>
       <c r="D84" s="69" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="E84" s="70"/>
       <c r="F84" s="67" t="s">
@@ -24907,7 +24934,7 @@
       </c>
       <c r="C85" s="68"/>
       <c r="D85" s="69" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="E85" s="70"/>
       <c r="F85" s="67"/>
@@ -24949,7 +24976,7 @@
       </c>
       <c r="C86" s="68"/>
       <c r="D86" s="69" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="E86" s="70"/>
       <c r="F86" s="67" t="s">
@@ -24986,7 +25013,7 @@
       <c r="AE86"/>
       <c r="AF86"/>
     </row>
-    <row r="87" spans="1:32" s="72" customFormat="1" ht="19" customHeight="1">
+    <row r="87" spans="1:32" s="72" customFormat="1" ht="18.95" customHeight="1">
       <c r="A87" s="77" t="s">
         <v>411</v>
       </c>
@@ -24995,7 +25022,7 @@
       </c>
       <c r="C87" s="77"/>
       <c r="D87" s="69" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="E87" s="70"/>
       <c r="F87" s="70"/>
@@ -25045,7 +25072,7 @@
       <c r="F88" s="61"/>
       <c r="G88" s="61"/>
       <c r="H88" s="65" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="I88" s="64" t="s">
         <v>227</v>
@@ -25091,7 +25118,7 @@
       <c r="F89" s="61"/>
       <c r="G89" s="61"/>
       <c r="H89" s="65" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="I89" s="64" t="s">
         <v>227</v>
@@ -25131,13 +25158,13 @@
         <v>26</v>
       </c>
       <c r="D90" s="63" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="E90" s="64"/>
       <c r="F90" s="61"/>
       <c r="G90" s="61"/>
       <c r="H90" s="65" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="I90" s="64" t="s">
         <v>227</v>
@@ -25183,7 +25210,7 @@
       <c r="F91" s="61"/>
       <c r="G91" s="61"/>
       <c r="H91" s="65" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="I91" s="64" t="s">
         <v>227</v>
@@ -25212,7 +25239,7 @@
       <c r="AE91"/>
       <c r="AF91"/>
     </row>
-    <row r="92" spans="1:32" s="72" customFormat="1" ht="46.5">
+    <row r="92" spans="1:32" s="72" customFormat="1" ht="47.25">
       <c r="A92" s="68" t="s">
         <v>419</v>
       </c>
@@ -25223,10 +25250,10 @@
         <v>26</v>
       </c>
       <c r="D92" s="163" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="E92" s="67" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="F92" s="67"/>
       <c r="G92" s="67"/>
@@ -25304,7 +25331,7 @@
       <c r="AE93"/>
       <c r="AF93"/>
     </row>
-    <row r="94" spans="1:32" s="72" customFormat="1" ht="46.5">
+    <row r="94" spans="1:32" s="72" customFormat="1" ht="47.25">
       <c r="A94" s="68" t="s">
         <v>424</v>
       </c>
@@ -25318,7 +25345,7 @@
         <v>425</v>
       </c>
       <c r="E94" s="67" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="F94" s="67"/>
       <c r="G94" s="67"/>
@@ -25396,7 +25423,7 @@
       <c r="AE95"/>
       <c r="AF95"/>
     </row>
-    <row r="96" spans="1:32" s="72" customFormat="1" ht="46.5">
+    <row r="96" spans="1:32" s="72" customFormat="1" ht="47.25">
       <c r="A96" s="68" t="s">
         <v>428</v>
       </c>
@@ -25410,7 +25437,7 @@
         <v>429</v>
       </c>
       <c r="E96" s="67" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="F96" s="67"/>
       <c r="G96" s="67"/>
@@ -25488,9 +25515,9 @@
       <c r="AE97"/>
       <c r="AF97"/>
     </row>
-    <row r="98" spans="1:32" s="72" customFormat="1" ht="46.5">
+    <row r="98" spans="1:32" s="72" customFormat="1" ht="47.25">
       <c r="A98" s="68" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="B98" s="68" t="s">
         <v>24</v>
@@ -25500,7 +25527,7 @@
         <v>432</v>
       </c>
       <c r="E98" s="67" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="F98" s="67"/>
       <c r="G98" s="67"/>
@@ -25536,7 +25563,7 @@
     </row>
     <row r="99" spans="1:32" s="72" customFormat="1">
       <c r="A99" s="68" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="B99" s="68" t="s">
         <v>16</v>
@@ -25576,7 +25603,7 @@
       <c r="AE99"/>
       <c r="AF99"/>
     </row>
-    <row r="100" spans="1:32" s="72" customFormat="1" ht="46.5">
+    <row r="100" spans="1:32" s="72" customFormat="1" ht="47.25">
       <c r="A100" s="68" t="s">
         <v>434</v>
       </c>
@@ -25587,10 +25614,10 @@
         <v>26</v>
       </c>
       <c r="D100" s="163" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="E100" s="67" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="F100" s="67"/>
       <c r="G100" s="67"/>
@@ -25635,7 +25662,7 @@
         <v>26</v>
       </c>
       <c r="D101" s="69" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="E101" s="70"/>
       <c r="F101" s="67"/>
@@ -25668,7 +25695,7 @@
       <c r="AE101"/>
       <c r="AF101"/>
     </row>
-    <row r="102" spans="1:32" s="66" customFormat="1" ht="46.5">
+    <row r="102" spans="1:32" s="66" customFormat="1" ht="47.25">
       <c r="A102" s="62" t="s">
         <v>436</v>
       </c>
@@ -25682,7 +25709,7 @@
         <v>437</v>
       </c>
       <c r="E102" s="61" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="F102" s="61"/>
       <c r="G102" s="61"/>
@@ -25760,7 +25787,7 @@
       <c r="AE103"/>
       <c r="AF103"/>
     </row>
-    <row r="104" spans="1:32" s="66" customFormat="1" ht="46.5">
+    <row r="104" spans="1:32" s="66" customFormat="1" ht="47.25">
       <c r="A104" s="62" t="s">
         <v>441</v>
       </c>
@@ -25774,7 +25801,7 @@
         <v>442</v>
       </c>
       <c r="E104" s="61" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="F104" s="61"/>
       <c r="G104" s="61"/>
@@ -26307,7 +26334,7 @@
         <v>26</v>
       </c>
       <c r="D118" s="63" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="E118" s="64" t="s">
         <v>479</v>
@@ -26315,7 +26342,7 @@
       <c r="F118" s="61"/>
       <c r="G118" s="61"/>
       <c r="H118" s="65" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="I118" s="64" t="s">
         <v>227</v>
@@ -26355,13 +26382,13 @@
         <v>26</v>
       </c>
       <c r="D119" s="63" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="E119" s="64"/>
       <c r="F119" s="61"/>
       <c r="G119" s="61"/>
       <c r="H119" s="65" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="I119" s="64" t="s">
         <v>227</v>
@@ -26401,7 +26428,7 @@
         <v>26</v>
       </c>
       <c r="D120" s="63" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="E120" s="64" t="s">
         <v>482</v>
@@ -26409,7 +26436,7 @@
       <c r="F120" s="61"/>
       <c r="G120" s="61"/>
       <c r="H120" s="65" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="I120" s="64" t="s">
         <v>227</v>
@@ -26449,13 +26476,13 @@
         <v>26</v>
       </c>
       <c r="D121" s="63" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="E121" s="64"/>
       <c r="F121" s="61"/>
       <c r="G121" s="61"/>
       <c r="H121" s="65" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="I121" s="64" t="s">
         <v>227</v>
@@ -26495,7 +26522,7 @@
         <v>26</v>
       </c>
       <c r="D122" s="63" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="E122" s="64" t="s">
         <v>482</v>
@@ -26584,7 +26611,7 @@
         <v>420</v>
       </c>
       <c r="B127" s="29" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="C127" s="29"/>
     </row>
@@ -26593,7 +26620,7 @@
         <v>487</v>
       </c>
       <c r="B128" s="29" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="129" spans="1:1">
